--- a/Documentos/Questões de Competência - Ontologia das Eleições Brasileiras.xlsx
+++ b/Documentos/Questões de Competência - Ontologia das Eleições Brasileiras.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aiqui\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repos\dissertacao_mestrado\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC273517-C148-42E9-B8AA-A742BF017229}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FA47DF2-039A-422E-B47B-E1E8C3D04E0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="v1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2635" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2451" uniqueCount="549">
   <si>
     <t>ID</t>
   </si>
@@ -1249,661 +1249,726 @@
     <t>serviços prestados por terceiros</t>
   </si>
   <si>
-    <t xml:space="preserve">SELECT ?cargo
-WHERE {
-  ?cargo eleicoes:disputadoAtravesDeEleicao ?eleicao.
-}
-</t>
-  </si>
-  <si>
     <t>locação/cessão de bens imóveis</t>
   </si>
   <si>
-    <t>curl --location --request GET 'http://localhost:8080/fuseki/eleicoesbrasil/?query=PREFIX%20eleicoes%3a%20%3chttp%3a%2f%2fwww.semanticweb.org%2faiqui%2fontologies%2f2019%2f1%2feleicoesbrasil%23%3e%0a%0aSELECT%20%3fcargo%20%0aWHERE%20%7b%20%3fcargo%20eleicoes%3adisputadoAtravesDeEleicao%20%3feleicao%20%7d'</t>
-  </si>
-  <si>
     <t>atividades de militância e mobilização de rua</t>
+  </si>
+  <si>
+    <t>publicidade por carros de som</t>
+  </si>
+  <si>
+    <t>Quais as zonas eleitorais existentes para a eleição?</t>
+  </si>
+  <si>
+    <t>Quais as seções eleitorais existentes para a eleição?</t>
+  </si>
+  <si>
+    <t>alimentação</t>
+  </si>
+  <si>
+    <t>publicidade por jornais e revistas</t>
+  </si>
+  <si>
+    <t>despesas com transporte ou deslocamento</t>
+  </si>
+  <si>
+    <t>telefone</t>
+  </si>
+  <si>
+    <t>eventos de promoção da candidatura</t>
+  </si>
+  <si>
+    <t>taxa de administração de financiamento coletivo</t>
+  </si>
+  <si>
+    <t>serviços próprios prestados por terceiros</t>
+  </si>
+  <si>
+    <t>locação/cessão de bens móveis (exceto veículos)</t>
+  </si>
+  <si>
+    <t>produção de programas de rádio, televisão ou vídeo</t>
+  </si>
+  <si>
+    <t>porcentagem</t>
+  </si>
+  <si>
+    <t>produção de jingles, vinhetas e slogans</t>
+  </si>
+  <si>
+    <t>correspondências e despesas postais</t>
+  </si>
+  <si>
+    <t>valor</t>
+  </si>
+  <si>
+    <t>criação e inclusão de páginas na internet</t>
+  </si>
+  <si>
+    <t>doações financeiras a outros candidatos/partidos</t>
+  </si>
+  <si>
+    <t>Brasil</t>
+  </si>
+  <si>
+    <t>materiais de expediente</t>
+  </si>
+  <si>
+    <t>cargo político</t>
+  </si>
+  <si>
+    <t>reembolsos de gastos realizados por eleitores</t>
+  </si>
+  <si>
+    <t>comícios</t>
+  </si>
+  <si>
+    <t>água</t>
+  </si>
+  <si>
+    <t>O candidato foi caçado?</t>
+  </si>
+  <si>
+    <t>despesas com hospedagem</t>
+  </si>
+  <si>
+    <t>impostos, contribuições e taxas</t>
+  </si>
+  <si>
+    <t>aquisição/doação de bens móveis ou imóveis</t>
+  </si>
+  <si>
+    <t>pré-instalação física de comitê de campanha</t>
+  </si>
+  <si>
+    <t>ativa</t>
+  </si>
+  <si>
+    <t>energia elétrica</t>
+  </si>
+  <si>
+    <t>bem</t>
+  </si>
+  <si>
+    <t>passagem aérea</t>
+  </si>
+  <si>
+    <t>pesquisas ou testes eleitorais</t>
+  </si>
+  <si>
+    <t>encargos sociais</t>
+  </si>
+  <si>
+    <t>multas eleitorais</t>
+  </si>
+  <si>
+    <t>Aluguéis e condomínios - taxas de condomínios - ordinárias</t>
+  </si>
+  <si>
+    <t>pessoal - salários e ordenados - ordinárias</t>
+  </si>
+  <si>
+    <t>pessoal - adiantamentos a empregados - adiantamentos de salários</t>
+  </si>
+  <si>
+    <t>despesas financeiras - comissões e tarifas bancárias</t>
+  </si>
+  <si>
+    <t>aluguéis e condomínios - locação de bens móveis - ordinárias</t>
+  </si>
+  <si>
+    <t>serviços técnico-profissionais - serviços contábeis - ordinárias</t>
+  </si>
+  <si>
+    <t>telecomunicações e internet - ordinárias</t>
+  </si>
+  <si>
+    <t>pessoal - fgts - ordinárias</t>
+  </si>
+  <si>
+    <t>material de consumo - materiais de expediente - ordinárias</t>
+  </si>
+  <si>
+    <t>aluguéis e condomínios - locação de bens imóveis - ordinárias</t>
+  </si>
+  <si>
+    <t>propaganda e publicidade - ordinárias</t>
+  </si>
+  <si>
+    <t>material de consumo - materiais de copa e cozinha - despesas eleitorais</t>
+  </si>
+  <si>
+    <t>pessoal - irrf - ordinárias</t>
+  </si>
+  <si>
+    <t>pessoal - previdência social - ordinárias</t>
+  </si>
+  <si>
+    <t>energia elétrica - ordinárias</t>
+  </si>
+  <si>
+    <t>tributos - taxas - ordinárias</t>
+  </si>
+  <si>
+    <t>eleito</t>
+  </si>
+  <si>
+    <t>tributos - outros tributos - ordinárias</t>
+  </si>
+  <si>
+    <t>cassação</t>
+  </si>
+  <si>
+    <t>outras despesas gerais - ordinárias</t>
+  </si>
+  <si>
+    <t>classificado</t>
+  </si>
+  <si>
+    <t>tributos - ipva - ordinárias</t>
+  </si>
+  <si>
+    <t>pessoal - outras despesas com pessoal - ordinárias</t>
+  </si>
+  <si>
+    <t>pessoal - 13º salário - ordinárias</t>
+  </si>
+  <si>
+    <t>transportes e viagens - serviços de táxi - ordinárias</t>
+  </si>
+  <si>
+    <t>transferências efetuadas - recursos financeiros - direção estadual - ordinárias</t>
+  </si>
+  <si>
+    <t>pessoal - pis sobre folha de pagamento - ordinárias</t>
+  </si>
+  <si>
+    <t>serviços postais - mulheres</t>
+  </si>
+  <si>
+    <t>serviços postais - ordinárias</t>
+  </si>
+  <si>
+    <t>pessoal - férias - ordinárias</t>
+  </si>
+  <si>
+    <t>segurança e vigilância - ordinárias</t>
+  </si>
+  <si>
+    <t>serviços técnico-profissionais - serviços de informática - ordinárias</t>
+  </si>
+  <si>
+    <t>informações demográficas</t>
+  </si>
+  <si>
+    <t>material de consumo - materiais de copa e cozinha - ordinárias</t>
+  </si>
+  <si>
+    <t>seguros - ordinárias</t>
+  </si>
+  <si>
+    <t>rádio e televisão - ordinárias</t>
+  </si>
+  <si>
+    <t>pessoal - contribuição sindical - ordinárias</t>
+  </si>
+  <si>
+    <t>manutenção, conservação e reparos de bens - ordinárias</t>
+  </si>
+  <si>
+    <t>despesas judiciais - ordinárias</t>
+  </si>
+  <si>
+    <t>despesas financeiras - outras despesas financeiras</t>
+  </si>
+  <si>
+    <t>tributos - iptu - ordinárias</t>
+  </si>
+  <si>
+    <t>integrar</t>
+  </si>
+  <si>
+    <t>serviços técnico-profissionais - serviços de consultoria jurídica - ordinárias</t>
+  </si>
+  <si>
+    <t>material de consumo - materiais de limpeza - ordinárias</t>
+  </si>
+  <si>
+    <t>material de consumo - materiais impressos - ordinárias</t>
+  </si>
+  <si>
+    <t>transferências efetuadas - recursos financeiros - direção municipal - ordinárias</t>
+  </si>
+  <si>
+    <t>outras despesas com propaganda doutrinária e política - mulheres</t>
+  </si>
+  <si>
+    <t>produção de audiovisuais - ordinárias</t>
+  </si>
+  <si>
+    <t>serviços de limpeza - ordinárias</t>
+  </si>
+  <si>
+    <t>obrigações diversas - outras obrigações a pagar</t>
+  </si>
+  <si>
+    <t>depósitos restituíveis e valores vinculados - depósitos judiciais</t>
+  </si>
+  <si>
+    <t>serviços cartorários - ordinárias</t>
+  </si>
+  <si>
+    <t>água e esgoto - ordinárias</t>
+  </si>
+  <si>
+    <t>transportes e viagens - fretamento de aeronaves - ordinárias</t>
+  </si>
+  <si>
+    <t>eventos promocionais - ordinárias</t>
+  </si>
+  <si>
+    <t>outras despesas gerais - mulheres</t>
+  </si>
+  <si>
+    <t>serviços técnico-profissionais - outros serviços técnicos e profissionais - ordinárias</t>
+  </si>
+  <si>
+    <t>transportes e viagens - passagens aéreas - ordinárias</t>
+  </si>
+  <si>
+    <t>transportes e viagens - hospedagens e estadias - ordinárias</t>
+  </si>
+  <si>
+    <t>materiais para comercialização / distribuição - mulheres</t>
+  </si>
+  <si>
+    <t>seminários - ordinárias</t>
+  </si>
+  <si>
+    <t>transportes e viagens - passagens aéreas - mulheres</t>
+  </si>
+  <si>
+    <t>material de consumo - outros materiais de consumo - ordinárias</t>
+  </si>
+  <si>
+    <t>transportes e viagens - fretes e carretos - ordinárias</t>
+  </si>
+  <si>
+    <t>material de consumo - materiais de informática - ordinárias</t>
+  </si>
+  <si>
+    <t>lanches e refeições - ordinárias</t>
+  </si>
+  <si>
+    <t>pessoal - alimentação do trabalhador - ordinárias</t>
+  </si>
+  <si>
+    <t>pessoal - auxílio-transporte - ordinárias</t>
+  </si>
+  <si>
+    <t>pessoal - outras despesas com pessoal - mulheres</t>
+  </si>
+  <si>
+    <t>seminários - mulheres</t>
+  </si>
+  <si>
+    <t>pessoal - rescisão de contrato de trabalho - ordinárias</t>
+  </si>
+  <si>
+    <t>transportes e viagens - transporte rodoviário - mulheres</t>
+  </si>
+  <si>
+    <t>transportes e viagens - pedágios - ordinárias</t>
+  </si>
+  <si>
+    <t>transferências efetuadas - recursos financeiros - candidato - ordinárias</t>
+  </si>
+  <si>
+    <t>outros ordinárias</t>
+  </si>
+  <si>
+    <t>materiais para comercialização / distribuição - ordinárias</t>
+  </si>
+  <si>
+    <t>publicações - ordinárias</t>
+  </si>
+  <si>
+    <t>adiantamentos diversos - adiantamentos a fornecedores</t>
+  </si>
+  <si>
+    <t>despesas financeiras - outras despesas financeiras (juros e multas)</t>
+  </si>
+  <si>
+    <t>outras despesas com propaganda doutrinária e política - ordinárias</t>
+  </si>
+  <si>
+    <t>transferências efetuadas - recursos financeiros - direção nacional - ordinárias</t>
+  </si>
+  <si>
+    <t>pessoal - adiantamentos a empregados - adiantamentos de 13º salário</t>
+  </si>
+  <si>
+    <t>pessoal - adiantamentos a empregados - adiantamentos de férias</t>
+  </si>
+  <si>
+    <t>assinaturas e aquisições de periódicos - ordinárias</t>
+  </si>
+  <si>
+    <t>cópias, encadernações e serviços similares</t>
+  </si>
+  <si>
+    <t>transportes e viagens - combustíveis, óleos e lubrificantes - ordinárias</t>
+  </si>
+  <si>
+    <t>ativo permanente - bens móveis - móveis e utensílios</t>
+  </si>
+  <si>
+    <t>congressos - ordinárias</t>
+  </si>
+  <si>
+    <t>transportes e viagens - outras despesas com transportes e viagens - ordinárias</t>
+  </si>
+  <si>
+    <t>adiantamentos diversos - outros adiantamentos diversos</t>
+  </si>
+  <si>
+    <t>ativo permanente - bens móveis - equipamentos de informática</t>
+  </si>
+  <si>
+    <t>assunção de dívidas de campanha - dívidas de candidatos - despesas eleitorais</t>
+  </si>
+  <si>
+    <t>assunção de dívidas de campanha - dívidas de diretórios partidários - despesas eleitorais</t>
+  </si>
+  <si>
+    <t>pesquisas e testes de opinião pública - ordinárias</t>
+  </si>
+  <si>
+    <t>despesas financeiras - outras despesas financeiras (aplicações financeiras)</t>
+  </si>
+  <si>
+    <t>transferências efetuadas - recursos financeiros - direção municipal - despesas com fins eleitorais</t>
+  </si>
+  <si>
+    <t>transportes e viagens - hospedagens e estadias - mulheres</t>
+  </si>
+  <si>
+    <t>transportes e viagens - outras despesas com transportes e viagens - mulheres</t>
+  </si>
+  <si>
+    <t>eventos promocionais - mulheres</t>
+  </si>
+  <si>
+    <t>ativo permanente - sistemas aplicativos - sistemas de informática</t>
+  </si>
+  <si>
+    <t>serviços técnico-profissionais - serviços de consultoria jurídica - mulheres</t>
+  </si>
+  <si>
+    <t>material de consumo - materiais impressos - mulheres</t>
+  </si>
+  <si>
+    <t>serviços técnico-profissionais - outros serviços técnicos e profissionais - mulheres</t>
+  </si>
+  <si>
+    <t>assunção de obrigações - despesas ordinárias realizadas por direção municipal</t>
+  </si>
+  <si>
+    <t>pessoal - assistência médica e social - ordinárias</t>
+  </si>
+  <si>
+    <t>produção de audiovisuais - mulheres</t>
+  </si>
+  <si>
+    <t>rádio e televisão - mulheres</t>
+  </si>
+  <si>
+    <t>transportes e viagens - transporte rodoviário - ordinárias</t>
+  </si>
+  <si>
+    <t>convenções partidárias - ordinárias</t>
+  </si>
+  <si>
+    <t>material de consumo - outros materiais de consumo - mulheres</t>
+  </si>
+  <si>
+    <t>propaganda e publicidade - mulheres</t>
+  </si>
+  <si>
+    <t>ativo permanente - bens móveis - arrendamento mercantil - móveis e utensílios - am</t>
+  </si>
+  <si>
+    <t>pessoal - salários e ordenados - mulheres</t>
+  </si>
+  <si>
+    <t>pessoal - auxílio-transporte - mulheres</t>
+  </si>
+  <si>
+    <t>outros materiais para comercialização / distribuição - ordinárias</t>
+  </si>
+  <si>
+    <t>ativo permanente - bens móveis - outras máquinas e equipamentos</t>
+  </si>
+  <si>
+    <t>pessoal - 13º salário - mulheres</t>
+  </si>
+  <si>
+    <t>pessoal - irrf - mulheres</t>
+  </si>
+  <si>
+    <t>pessoal - previdência social - mulheres</t>
+  </si>
+  <si>
+    <t>pessoal - pis sobre folha de pagamento - mulheres</t>
+  </si>
+  <si>
+    <t>recuperação de depósitos restituíveis e valores vinculados - depósitos judiciais</t>
+  </si>
+  <si>
+    <t>despesas financeiras - atualização monetária de empréstimos</t>
+  </si>
+  <si>
+    <t>assunção de dívidas de campanha - dívidas de comitês financeiros - despesas eleitorais</t>
+  </si>
+  <si>
+    <t>rádio e televisão - despesas eleitorais</t>
+  </si>
+  <si>
+    <t>outros materiais para comercialização / distribuição - mulheres</t>
+  </si>
+  <si>
+    <t>serviços técnico-profissionais - serviços contábeis - despesas eleitorais</t>
+  </si>
+  <si>
+    <t>material de consumo - materiais de expediente - despesas eleitorais</t>
+  </si>
+  <si>
+    <t>serviços cartorários - despesas eleitorais</t>
+  </si>
+  <si>
+    <t>serviços de limpeza - cessão mao-de-obra - ordinárias</t>
+  </si>
+  <si>
+    <t>aluguéis e condomínios - locação de bens imóveis - despesas eleitorais</t>
+  </si>
+  <si>
+    <t>obrigações diversas - empréstimos bancários a pagar</t>
+  </si>
+  <si>
+    <t>tributos - outros tributos - despesas eleitorais</t>
+  </si>
+  <si>
+    <t>serviços técnico-profissionais - encargos sociais - ordinárias</t>
+  </si>
+  <si>
+    <t>assunção de obrigações - despesas ordinárias realizadas por direção estadual</t>
+  </si>
+  <si>
+    <t>serviços técnico-profissionais - serviços contábeis - mulheres</t>
+  </si>
+  <si>
+    <t>despesas judiciais - mulheres</t>
+  </si>
+  <si>
+    <t>eventos promocionais - despesas eleitorais</t>
+  </si>
+  <si>
+    <t>ativo permanente - bens móveis - veículos</t>
+  </si>
+  <si>
+    <t>transportes e viagens - adiantamentos diversos - adiantamentos para viagens</t>
+  </si>
+  <si>
+    <t>água e esgoto - mulheres</t>
+  </si>
+  <si>
+    <t>material de consumo - materiais de informática - mulheres</t>
+  </si>
+  <si>
+    <t>tributos - taxas - despesas eleitorais</t>
+  </si>
+  <si>
+    <t>manutenção, conservação e reparos de bens - cessão mao-de-obra - ordinárias</t>
+  </si>
+  <si>
+    <t>convenções - mulheres</t>
+  </si>
+  <si>
+    <t>pessoal - estagiários - mulheres</t>
+  </si>
+  <si>
+    <t>outras despesas gerais - despesas eleitorais</t>
+  </si>
+  <si>
+    <t>outros despesas eleitorais</t>
+  </si>
+  <si>
+    <t>serviços técnico-profissionais - serviços de consultoria jurídica - despesas eleitorais</t>
+  </si>
+  <si>
+    <t>propaganda e publicidade - despesas eleitorais</t>
+  </si>
+  <si>
+    <t>congressos - mulheres</t>
+  </si>
+  <si>
+    <t>aluguéis e condomínios - locação de bens imóveis - mulheres</t>
+  </si>
+  <si>
+    <t>ativo permanente - bens móveis - equipamentos audiovisuais</t>
+  </si>
+  <si>
+    <t>lanches e refeições - mulheres</t>
+  </si>
+  <si>
+    <t>pessoal - fgts - mulheres</t>
+  </si>
+  <si>
+    <t>outras despesas de campanha eleitoral - despesas eleitorais</t>
+  </si>
+  <si>
+    <t>depósitos restituíveis e valores vinculados - depósitos extrajudiciais</t>
+  </si>
+  <si>
+    <t>despesas judiciais - despesas eleitorais</t>
+  </si>
+  <si>
+    <t>manutenção, conservação e reparos de bens - encargos sociais sobre cessão mao-de-obra - ordinárias</t>
+  </si>
+  <si>
+    <t>publicações - mulheres</t>
+  </si>
+  <si>
+    <t>publicações - despesas eleitorais</t>
+  </si>
+  <si>
+    <t>material de consumo - materiais impressos - despesas eleitorais</t>
+  </si>
+  <si>
+    <t>ativo permanente - bens imóveis - instalações</t>
+  </si>
+  <si>
+    <t>outras receitas diversas - outras receitas diversas</t>
+  </si>
+  <si>
+    <t>ativo permanente - sistemas aplicativos - arrendamento mercantil - sistemas de informática - am</t>
+  </si>
+  <si>
+    <t>ativo permanente - bens móveis - equipamentos de sonorização</t>
+  </si>
+  <si>
+    <t>telecomunicações e internet - mulheres</t>
+  </si>
+  <si>
+    <t>pessoal - salários e ordenados - despesas eleitorais</t>
+  </si>
+  <si>
+    <t>serviços técnico-profissionais - outros serviços técnicos e profissionais - despesas eleitorais</t>
+  </si>
+  <si>
+    <t>classificar</t>
+  </si>
+  <si>
+    <t>turno</t>
+  </si>
+  <si>
+    <t>porcentagem de participação</t>
+  </si>
+  <si>
+    <t>porcentagem de abstenção</t>
+  </si>
+  <si>
+    <t>cassado</t>
+  </si>
+  <si>
+    <t>Em que ano a eleição foi realizada?</t>
+  </si>
+  <si>
+    <t>Ano de realização da eleição</t>
+  </si>
+  <si>
+    <t>SELECT ?cargo 
+WHERE { 
+?cargo eleicoes:disputadoAtravesDeEleicao ?eleicao. 
+}</t>
+  </si>
+  <si>
+    <t>Quais cargos políticos foram disputados na eleição?</t>
+  </si>
+  <si>
+    <t>Cargos disputados na eleição consultada</t>
   </si>
   <si>
     <t>SELECT ?eleicao ?anoeleicao ?cargo
 WHERE {
-  ?cargo eleicoes:disputadoAtravesDeEleicao ?eleicao.
-  ?eleicao eleicoes:temAno ?anoeleicao
+?cargo eleicoes:disputadoAtravesDeEleicao ?eleicao.
+?eleicao eleicoes:temAno ?anoeleicao
 }</t>
   </si>
   <si>
-    <t>publicidade por carros de som</t>
-  </si>
-  <si>
-    <t>Quais as zonas eleitorais existentes para a eleição?</t>
-  </si>
-  <si>
-    <t>Quais as seções eleitorais existentes para a eleição?</t>
-  </si>
-  <si>
-    <t>alimentação</t>
-  </si>
-  <si>
-    <t>publicidade por jornais e revistas</t>
-  </si>
-  <si>
-    <t>despesas com transporte ou deslocamento</t>
-  </si>
-  <si>
-    <t>telefone</t>
-  </si>
-  <si>
-    <t>eventos de promoção da candidatura</t>
-  </si>
-  <si>
-    <t>taxa de administração de financiamento coletivo</t>
-  </si>
-  <si>
-    <t>serviços próprios prestados por terceiros</t>
-  </si>
-  <si>
-    <t>locação/cessão de bens móveis (exceto veículos)</t>
-  </si>
-  <si>
-    <t>produção de programas de rádio, televisão ou vídeo</t>
-  </si>
-  <si>
-    <t>porcentagem</t>
-  </si>
-  <si>
-    <t>produção de jingles, vinhetas e slogans</t>
-  </si>
-  <si>
-    <t>correspondências e despesas postais</t>
-  </si>
-  <si>
-    <t>valor</t>
-  </si>
-  <si>
-    <t>criação e inclusão de páginas na internet</t>
-  </si>
-  <si>
-    <t>doações financeiras a outros candidatos/partidos</t>
-  </si>
-  <si>
-    <t>Brasil</t>
-  </si>
-  <si>
-    <t>materiais de expediente</t>
-  </si>
-  <si>
-    <t>cargo político</t>
-  </si>
-  <si>
-    <t>reembolsos de gastos realizados por eleitores</t>
-  </si>
-  <si>
-    <t>comícios</t>
-  </si>
-  <si>
-    <t>água</t>
-  </si>
-  <si>
-    <t>O candidato foi caçado?</t>
-  </si>
-  <si>
-    <t>despesas com hospedagem</t>
-  </si>
-  <si>
-    <t>impostos, contribuições e taxas</t>
-  </si>
-  <si>
-    <t>aquisição/doação de bens móveis ou imóveis</t>
-  </si>
-  <si>
-    <t>pré-instalação física de comitê de campanha</t>
-  </si>
-  <si>
-    <t>ativa</t>
-  </si>
-  <si>
-    <t>energia elétrica</t>
-  </si>
-  <si>
-    <t>bem</t>
-  </si>
-  <si>
-    <t>passagem aérea</t>
-  </si>
-  <si>
-    <t>pesquisas ou testes eleitorais</t>
-  </si>
-  <si>
-    <t>encargos sociais</t>
-  </si>
-  <si>
-    <t>multas eleitorais</t>
-  </si>
-  <si>
-    <t>Aluguéis e condomínios - taxas de condomínios - ordinárias</t>
-  </si>
-  <si>
-    <t>pessoal - salários e ordenados - ordinárias</t>
-  </si>
-  <si>
-    <t>pessoal - adiantamentos a empregados - adiantamentos de salários</t>
-  </si>
-  <si>
-    <t>despesas financeiras - comissões e tarifas bancárias</t>
-  </si>
-  <si>
-    <t>aluguéis e condomínios - locação de bens móveis - ordinárias</t>
-  </si>
-  <si>
-    <t>serviços técnico-profissionais - serviços contábeis - ordinárias</t>
-  </si>
-  <si>
-    <t>telecomunicações e internet - ordinárias</t>
-  </si>
-  <si>
-    <t>pessoal - fgts - ordinárias</t>
-  </si>
-  <si>
-    <t>material de consumo - materiais de expediente - ordinárias</t>
-  </si>
-  <si>
-    <t>aluguéis e condomínios - locação de bens imóveis - ordinárias</t>
-  </si>
-  <si>
-    <t>propaganda e publicidade - ordinárias</t>
-  </si>
-  <si>
-    <t>material de consumo - materiais de copa e cozinha - despesas eleitorais</t>
-  </si>
-  <si>
-    <t>pessoal - irrf - ordinárias</t>
-  </si>
-  <si>
-    <t>pessoal - previdência social - ordinárias</t>
-  </si>
-  <si>
-    <t>energia elétrica - ordinárias</t>
-  </si>
-  <si>
-    <t>tributos - taxas - ordinárias</t>
-  </si>
-  <si>
-    <t>eleito</t>
-  </si>
-  <si>
-    <t>tributos - outros tributos - ordinárias</t>
-  </si>
-  <si>
-    <t>cassação</t>
-  </si>
-  <si>
-    <t>outras despesas gerais - ordinárias</t>
-  </si>
-  <si>
-    <t>classificado</t>
-  </si>
-  <si>
-    <t>tributos - ipva - ordinárias</t>
-  </si>
-  <si>
-    <t>pessoal - outras despesas com pessoal - ordinárias</t>
-  </si>
-  <si>
-    <t>pessoal - 13º salário - ordinárias</t>
-  </si>
-  <si>
-    <t>transportes e viagens - serviços de táxi - ordinárias</t>
-  </si>
-  <si>
-    <t>transferências efetuadas - recursos financeiros - direção estadual - ordinárias</t>
-  </si>
-  <si>
-    <t>pessoal - pis sobre folha de pagamento - ordinárias</t>
-  </si>
-  <si>
-    <t>serviços postais - mulheres</t>
-  </si>
-  <si>
-    <t>serviços postais - ordinárias</t>
-  </si>
-  <si>
-    <t>pessoal - férias - ordinárias</t>
-  </si>
-  <si>
-    <t>segurança e vigilância - ordinárias</t>
-  </si>
-  <si>
-    <t>serviços técnico-profissionais - serviços de informática - ordinárias</t>
-  </si>
-  <si>
-    <t>informações demográficas</t>
-  </si>
-  <si>
-    <t>material de consumo - materiais de copa e cozinha - ordinárias</t>
-  </si>
-  <si>
-    <t>seguros - ordinárias</t>
-  </si>
-  <si>
-    <t>rádio e televisão - ordinárias</t>
-  </si>
-  <si>
-    <t>pessoal - contribuição sindical - ordinárias</t>
-  </si>
-  <si>
-    <t>manutenção, conservação e reparos de bens - ordinárias</t>
-  </si>
-  <si>
-    <t>despesas judiciais - ordinárias</t>
-  </si>
-  <si>
-    <t>despesas financeiras - outras despesas financeiras</t>
-  </si>
-  <si>
-    <t>tributos - iptu - ordinárias</t>
-  </si>
-  <si>
-    <t>integrar</t>
-  </si>
-  <si>
-    <t>serviços técnico-profissionais - serviços de consultoria jurídica - ordinárias</t>
-  </si>
-  <si>
-    <t>material de consumo - materiais de limpeza - ordinárias</t>
-  </si>
-  <si>
-    <t>material de consumo - materiais impressos - ordinárias</t>
-  </si>
-  <si>
-    <t>transferências efetuadas - recursos financeiros - direção municipal - ordinárias</t>
-  </si>
-  <si>
-    <t>outras despesas com propaganda doutrinária e política - mulheres</t>
-  </si>
-  <si>
-    <t>produção de audiovisuais - ordinárias</t>
-  </si>
-  <si>
-    <t>serviços de limpeza - ordinárias</t>
-  </si>
-  <si>
-    <t>obrigações diversas - outras obrigações a pagar</t>
-  </si>
-  <si>
-    <t>depósitos restituíveis e valores vinculados - depósitos judiciais</t>
-  </si>
-  <si>
-    <t>serviços cartorários - ordinárias</t>
-  </si>
-  <si>
-    <t>água e esgoto - ordinárias</t>
-  </si>
-  <si>
-    <t>transportes e viagens - fretamento de aeronaves - ordinárias</t>
-  </si>
-  <si>
-    <t>eventos promocionais - ordinárias</t>
-  </si>
-  <si>
-    <t>outras despesas gerais - mulheres</t>
-  </si>
-  <si>
-    <t>serviços técnico-profissionais - outros serviços técnicos e profissionais - ordinárias</t>
-  </si>
-  <si>
-    <t>transportes e viagens - passagens aéreas - ordinárias</t>
-  </si>
-  <si>
-    <t>transportes e viagens - hospedagens e estadias - ordinárias</t>
-  </si>
-  <si>
-    <t>materiais para comercialização / distribuição - mulheres</t>
-  </si>
-  <si>
-    <t>seminários - ordinárias</t>
-  </si>
-  <si>
-    <t>transportes e viagens - passagens aéreas - mulheres</t>
-  </si>
-  <si>
-    <t>material de consumo - outros materiais de consumo - ordinárias</t>
-  </si>
-  <si>
-    <t>transportes e viagens - fretes e carretos - ordinárias</t>
-  </si>
-  <si>
-    <t>material de consumo - materiais de informática - ordinárias</t>
-  </si>
-  <si>
-    <t>lanches e refeições - ordinárias</t>
-  </si>
-  <si>
-    <t>pessoal - alimentação do trabalhador - ordinárias</t>
-  </si>
-  <si>
-    <t>pessoal - auxílio-transporte - ordinárias</t>
-  </si>
-  <si>
-    <t>pessoal - outras despesas com pessoal - mulheres</t>
-  </si>
-  <si>
-    <t>seminários - mulheres</t>
-  </si>
-  <si>
-    <t>pessoal - rescisão de contrato de trabalho - ordinárias</t>
-  </si>
-  <si>
-    <t>transportes e viagens - transporte rodoviário - mulheres</t>
-  </si>
-  <si>
-    <t>transportes e viagens - pedágios - ordinárias</t>
-  </si>
-  <si>
-    <t>transferências efetuadas - recursos financeiros - candidato - ordinárias</t>
-  </si>
-  <si>
-    <t>outros ordinárias</t>
-  </si>
-  <si>
-    <t>materiais para comercialização / distribuição - ordinárias</t>
-  </si>
-  <si>
-    <t>publicações - ordinárias</t>
-  </si>
-  <si>
-    <t>adiantamentos diversos - adiantamentos a fornecedores</t>
-  </si>
-  <si>
-    <t>despesas financeiras - outras despesas financeiras (juros e multas)</t>
-  </si>
-  <si>
-    <t>outras despesas com propaganda doutrinária e política - ordinárias</t>
-  </si>
-  <si>
-    <t>transferências efetuadas - recursos financeiros - direção nacional - ordinárias</t>
-  </si>
-  <si>
-    <t>pessoal - adiantamentos a empregados - adiantamentos de 13º salário</t>
-  </si>
-  <si>
-    <t>pessoal - adiantamentos a empregados - adiantamentos de férias</t>
-  </si>
-  <si>
-    <t>assinaturas e aquisições de periódicos - ordinárias</t>
-  </si>
-  <si>
-    <t>cópias, encadernações e serviços similares</t>
-  </si>
-  <si>
-    <t>transportes e viagens - combustíveis, óleos e lubrificantes - ordinárias</t>
-  </si>
-  <si>
-    <t>ativo permanente - bens móveis - móveis e utensílios</t>
-  </si>
-  <si>
-    <t>congressos - ordinárias</t>
-  </si>
-  <si>
-    <t>transportes e viagens - outras despesas com transportes e viagens - ordinárias</t>
-  </si>
-  <si>
-    <t>adiantamentos diversos - outros adiantamentos diversos</t>
-  </si>
-  <si>
-    <t>ativo permanente - bens móveis - equipamentos de informática</t>
-  </si>
-  <si>
-    <t>assunção de dívidas de campanha - dívidas de candidatos - despesas eleitorais</t>
-  </si>
-  <si>
-    <t>assunção de dívidas de campanha - dívidas de diretórios partidários - despesas eleitorais</t>
-  </si>
-  <si>
-    <t>pesquisas e testes de opinião pública - ordinárias</t>
-  </si>
-  <si>
-    <t>despesas financeiras - outras despesas financeiras (aplicações financeiras)</t>
-  </si>
-  <si>
-    <t>transferências efetuadas - recursos financeiros - direção municipal - despesas com fins eleitorais</t>
-  </si>
-  <si>
-    <t>transportes e viagens - hospedagens e estadias - mulheres</t>
-  </si>
-  <si>
-    <t>transportes e viagens - outras despesas com transportes e viagens - mulheres</t>
-  </si>
-  <si>
-    <t>eventos promocionais - mulheres</t>
-  </si>
-  <si>
-    <t>ativo permanente - sistemas aplicativos - sistemas de informática</t>
-  </si>
-  <si>
-    <t>serviços técnico-profissionais - serviços de consultoria jurídica - mulheres</t>
-  </si>
-  <si>
-    <t>material de consumo - materiais impressos - mulheres</t>
-  </si>
-  <si>
-    <t>serviços técnico-profissionais - outros serviços técnicos e profissionais - mulheres</t>
-  </si>
-  <si>
-    <t>assunção de obrigações - despesas ordinárias realizadas por direção municipal</t>
-  </si>
-  <si>
-    <t>pessoal - assistência médica e social - ordinárias</t>
-  </si>
-  <si>
-    <t>produção de audiovisuais - mulheres</t>
-  </si>
-  <si>
-    <t>rádio e televisão - mulheres</t>
-  </si>
-  <si>
-    <t>transportes e viagens - transporte rodoviário - ordinárias</t>
-  </si>
-  <si>
-    <t>convenções partidárias - ordinárias</t>
-  </si>
-  <si>
-    <t>material de consumo - outros materiais de consumo - mulheres</t>
-  </si>
-  <si>
-    <t>propaganda e publicidade - mulheres</t>
-  </si>
-  <si>
-    <t>ativo permanente - bens móveis - arrendamento mercantil - móveis e utensílios - am</t>
-  </si>
-  <si>
-    <t>pessoal - salários e ordenados - mulheres</t>
-  </si>
-  <si>
-    <t>pessoal - auxílio-transporte - mulheres</t>
-  </si>
-  <si>
-    <t>outros materiais para comercialização / distribuição - ordinárias</t>
-  </si>
-  <si>
-    <t>ativo permanente - bens móveis - outras máquinas e equipamentos</t>
-  </si>
-  <si>
-    <t>pessoal - 13º salário - mulheres</t>
-  </si>
-  <si>
-    <t>pessoal - irrf - mulheres</t>
-  </si>
-  <si>
-    <t>pessoal - previdência social - mulheres</t>
-  </si>
-  <si>
-    <t>pessoal - pis sobre folha de pagamento - mulheres</t>
-  </si>
-  <si>
-    <t>recuperação de depósitos restituíveis e valores vinculados - depósitos judiciais</t>
-  </si>
-  <si>
-    <t>despesas financeiras - atualização monetária de empréstimos</t>
-  </si>
-  <si>
-    <t>assunção de dívidas de campanha - dívidas de comitês financeiros - despesas eleitorais</t>
-  </si>
-  <si>
-    <t>rádio e televisão - despesas eleitorais</t>
-  </si>
-  <si>
-    <t>outros materiais para comercialização / distribuição - mulheres</t>
-  </si>
-  <si>
-    <t>serviços técnico-profissionais - serviços contábeis - despesas eleitorais</t>
-  </si>
-  <si>
-    <t>material de consumo - materiais de expediente - despesas eleitorais</t>
-  </si>
-  <si>
-    <t>serviços cartorários - despesas eleitorais</t>
-  </si>
-  <si>
-    <t>serviços de limpeza - cessão mao-de-obra - ordinárias</t>
-  </si>
-  <si>
-    <t>aluguéis e condomínios - locação de bens imóveis - despesas eleitorais</t>
-  </si>
-  <si>
-    <t>obrigações diversas - empréstimos bancários a pagar</t>
-  </si>
-  <si>
-    <t>tributos - outros tributos - despesas eleitorais</t>
-  </si>
-  <si>
-    <t>serviços técnico-profissionais - encargos sociais - ordinárias</t>
-  </si>
-  <si>
-    <t>assunção de obrigações - despesas ordinárias realizadas por direção estadual</t>
-  </si>
-  <si>
-    <t>serviços técnico-profissionais - serviços contábeis - mulheres</t>
-  </si>
-  <si>
-    <t>despesas judiciais - mulheres</t>
-  </si>
-  <si>
-    <t>eventos promocionais - despesas eleitorais</t>
-  </si>
-  <si>
-    <t>ativo permanente - bens móveis - veículos</t>
-  </si>
-  <si>
-    <t>transportes e viagens - adiantamentos diversos - adiantamentos para viagens</t>
-  </si>
-  <si>
-    <t>água e esgoto - mulheres</t>
-  </si>
-  <si>
-    <t>material de consumo - materiais de informática - mulheres</t>
-  </si>
-  <si>
-    <t>tributos - taxas - despesas eleitorais</t>
-  </si>
-  <si>
-    <t>manutenção, conservação e reparos de bens - cessão mao-de-obra - ordinárias</t>
-  </si>
-  <si>
-    <t>convenções - mulheres</t>
-  </si>
-  <si>
-    <t>pessoal - estagiários - mulheres</t>
-  </si>
-  <si>
-    <t>outras despesas gerais - despesas eleitorais</t>
-  </si>
-  <si>
-    <t>outros despesas eleitorais</t>
-  </si>
-  <si>
-    <t>serviços técnico-profissionais - serviços de consultoria jurídica - despesas eleitorais</t>
-  </si>
-  <si>
-    <t>propaganda e publicidade - despesas eleitorais</t>
-  </si>
-  <si>
-    <t>congressos - mulheres</t>
-  </si>
-  <si>
-    <t>aluguéis e condomínios - locação de bens imóveis - mulheres</t>
-  </si>
-  <si>
-    <t>ativo permanente - bens móveis - equipamentos audiovisuais</t>
-  </si>
-  <si>
-    <t>lanches e refeições - mulheres</t>
-  </si>
-  <si>
-    <t>pessoal - fgts - mulheres</t>
-  </si>
-  <si>
-    <t>outras despesas de campanha eleitoral - despesas eleitorais</t>
-  </si>
-  <si>
-    <t>depósitos restituíveis e valores vinculados - depósitos extrajudiciais</t>
-  </si>
-  <si>
-    <t>despesas judiciais - despesas eleitorais</t>
-  </si>
-  <si>
-    <t>manutenção, conservação e reparos de bens - encargos sociais sobre cessão mao-de-obra - ordinárias</t>
-  </si>
-  <si>
-    <t>publicações - mulheres</t>
-  </si>
-  <si>
-    <t>publicações - despesas eleitorais</t>
-  </si>
-  <si>
-    <t>material de consumo - materiais impressos - despesas eleitorais</t>
-  </si>
-  <si>
-    <t>ativo permanente - bens imóveis - instalações</t>
-  </si>
-  <si>
-    <t>outras receitas diversas - outras receitas diversas</t>
-  </si>
-  <si>
-    <t>ativo permanente - sistemas aplicativos - arrendamento mercantil - sistemas de informática - am</t>
-  </si>
-  <si>
-    <t>ativo permanente - bens móveis - equipamentos de sonorização</t>
-  </si>
-  <si>
-    <t>telecomunicações e internet - mulheres</t>
-  </si>
-  <si>
-    <t>pessoal - salários e ordenados - despesas eleitorais</t>
-  </si>
-  <si>
-    <t>serviços técnico-profissionais - outros serviços técnicos e profissionais - despesas eleitorais</t>
-  </si>
-  <si>
-    <t>classificar</t>
-  </si>
-  <si>
-    <t>turno</t>
-  </si>
-  <si>
-    <t>porcentagem de participação</t>
-  </si>
-  <si>
-    <t>porcentagem de abstenção</t>
-  </si>
-  <si>
-    <t>cassado</t>
+    <t>Quem foram os candidatos que disputaram cargos políticos na eleição?</t>
+  </si>
+  <si>
+    <t>Lista de candidatos da eleição</t>
+  </si>
+  <si>
+    <t>Recursos próprios 
+Recursos de pessoas físicas 
+Recursos de partido político 
+Recursos de outros candidatos 
+Recursos de Financiamento Coletivo 
+Recursos de origens não identificadas 
+Rendimentos de aplicações financeiras 
+Doações pela Internet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Encargos financeiros, taxas bancárias e/ou op. cartão de crédito 
+Diversas a especificar 
+Publicidade por materiais impressos 
+Combustíveis e lubrificantes 
+Despesas com pessoal 
+Cessão ou locação de veículos 
+Despesa com Impulsionamento de Conteúdos 
+Publicidade por adesivos 
+Serviços prestados por terceiros 
+Locação/cessão de bens imóveis 
+Atividades de militância e mobilização de rua 
+Publicidade por carros de som 
+Alimentação 
+Publicidade por jornais e revistas 
+Despesas com transporte ou deslocamento 
+Telefone 
+Eventos de promoção da candidatura 
+Taxa de Administração de Financiamento Coletivo 
+Serviços próprios prestados por terceiros 
+Locação/cessão de bens móveis (exceto veículos) 
+Produção de programas de rádio, televisão ou vídeo 
+Produção de jingles, vinhetas e slogans 
+Correspondências e despesas postais 
+Criação e inclusão de páginas na internet 
+Doações financeiras a outros candidatos/partidos 
+Materiais de expediente 
+Reembolsos de gastos realizados por eleitores 
+Comícios 
+Água 
+Despesas com Hospedagem 
+Impostos, contribuições e taxas 
+Aquisição/Doação de bens móveis ou imóveis 
+Pré-instalação física de comitê de campanha 
+Energia elétrica 
+Passagem Aérea 
+Pesquisas ou testes eleitorais 
+Encargos sociais 
+Multas eleitorais 
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1927,6 +1992,12 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1948,7 +2019,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1956,11 +2027,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -2019,22 +2105,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5576,7 +5661,7 @@
         <v>205</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D105" s="1">
         <v>1</v>
@@ -5590,7 +5675,7 @@
         <v>205</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D106" s="1">
         <v>1</v>
@@ -5604,7 +5689,7 @@
         <v>205</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D107" s="1">
         <v>1</v>
@@ -5618,7 +5703,7 @@
         <v>205</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D108" s="1">
         <v>1</v>
@@ -5632,7 +5717,7 @@
         <v>205</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D109" s="1">
         <v>1</v>
@@ -5646,7 +5731,7 @@
         <v>205</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D110" s="1">
         <v>1</v>
@@ -5660,7 +5745,7 @@
         <v>205</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D111" s="1">
         <v>1</v>
@@ -5674,7 +5759,7 @@
         <v>205</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D112" s="1">
         <v>1</v>
@@ -5688,7 +5773,7 @@
         <v>205</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D113" s="1">
         <v>1</v>
@@ -5702,7 +5787,7 @@
         <v>205</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D114" s="1">
         <v>1</v>
@@ -5716,7 +5801,7 @@
         <v>205</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D115" s="1">
         <v>1</v>
@@ -5730,7 +5815,7 @@
         <v>205</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D116" s="1">
         <v>1</v>
@@ -5744,7 +5829,7 @@
         <v>205</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D117" s="1">
         <v>1</v>
@@ -5758,7 +5843,7 @@
         <v>205</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D118" s="1">
         <v>1</v>
@@ -5772,7 +5857,7 @@
         <v>205</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D119" s="1">
         <v>1</v>
@@ -5786,7 +5871,7 @@
         <v>205</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D120" s="1">
         <v>1</v>
@@ -5800,7 +5885,7 @@
         <v>205</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D121" s="1">
         <v>1</v>
@@ -5814,7 +5899,7 @@
         <v>205</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="D122" s="1">
         <v>1</v>
@@ -5828,7 +5913,7 @@
         <v>205</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D123" s="1">
         <v>1</v>
@@ -5842,7 +5927,7 @@
         <v>205</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D124" s="1">
         <v>1</v>
@@ -5856,7 +5941,7 @@
         <v>205</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D125" s="1">
         <v>1</v>
@@ -5870,7 +5955,7 @@
         <v>205</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D126" s="1">
         <v>1</v>
@@ -5884,7 +5969,7 @@
         <v>205</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D127" s="1">
         <v>1</v>
@@ -5898,7 +5983,7 @@
         <v>205</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D128" s="1">
         <v>1</v>
@@ -5912,7 +5997,7 @@
         <v>205</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D129" s="1">
         <v>1</v>
@@ -5926,7 +6011,7 @@
         <v>205</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D130" s="1">
         <v>1</v>
@@ -5940,7 +6025,7 @@
         <v>205</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D131" s="1">
         <v>1</v>
@@ -5954,7 +6039,7 @@
         <v>205</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="D132" s="1">
         <v>1</v>
@@ -5968,7 +6053,7 @@
         <v>205</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D133" s="1">
         <v>1</v>
@@ -5982,7 +6067,7 @@
         <v>205</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D134" s="1">
         <v>1</v>
@@ -5996,7 +6081,7 @@
         <v>205</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D135" s="1">
         <v>1</v>
@@ -6010,7 +6095,7 @@
         <v>205</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D136" s="1">
         <v>1</v>
@@ -6024,7 +6109,7 @@
         <v>205</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="D137" s="1">
         <v>1</v>
@@ -6038,7 +6123,7 @@
         <v>205</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D138" s="1">
         <v>1</v>
@@ -6052,7 +6137,7 @@
         <v>205</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D139" s="1">
         <v>1</v>
@@ -6066,7 +6151,7 @@
         <v>205</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="D140" s="1">
         <v>1</v>
@@ -6080,7 +6165,7 @@
         <v>205</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="D141" s="1">
         <v>1</v>
@@ -6094,7 +6179,7 @@
         <v>205</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D142" s="1">
         <v>1</v>
@@ -6108,7 +6193,7 @@
         <v>205</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="D143" s="1">
         <v>1</v>
@@ -6122,7 +6207,7 @@
         <v>205</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D144" s="1">
         <v>1</v>
@@ -6136,7 +6221,7 @@
         <v>205</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D145" s="1">
         <v>1</v>
@@ -6150,7 +6235,7 @@
         <v>205</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D146" s="1">
         <v>1</v>
@@ -6164,7 +6249,7 @@
         <v>205</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D147" s="1">
         <v>1</v>
@@ -6178,7 +6263,7 @@
         <v>205</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D148" s="1">
         <v>1</v>
@@ -6192,7 +6277,7 @@
         <v>205</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="D149" s="1">
         <v>1</v>
@@ -6206,7 +6291,7 @@
         <v>205</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D150" s="1">
         <v>1</v>
@@ -6220,7 +6305,7 @@
         <v>205</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D151" s="1">
         <v>1</v>
@@ -6234,7 +6319,7 @@
         <v>205</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D152" s="1">
         <v>1</v>
@@ -6248,7 +6333,7 @@
         <v>205</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="D153" s="1">
         <v>1</v>
@@ -6262,7 +6347,7 @@
         <v>205</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="D154" s="1">
         <v>1</v>
@@ -6276,7 +6361,7 @@
         <v>205</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D155" s="1">
         <v>1</v>
@@ -6290,7 +6375,7 @@
         <v>205</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D156" s="1">
         <v>1</v>
@@ -6304,7 +6389,7 @@
         <v>205</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="D157" s="1">
         <v>1</v>
@@ -6318,7 +6403,7 @@
         <v>205</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="D158" s="1">
         <v>1</v>
@@ -6332,7 +6417,7 @@
         <v>205</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="D159" s="1">
         <v>1</v>
@@ -6346,7 +6431,7 @@
         <v>205</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="D160" s="1">
         <v>1</v>
@@ -6360,7 +6445,7 @@
         <v>205</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D161" s="1">
         <v>1</v>
@@ -6374,7 +6459,7 @@
         <v>205</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D162" s="1">
         <v>1</v>
@@ -6388,7 +6473,7 @@
         <v>205</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="D163" s="1">
         <v>1</v>
@@ -6402,7 +6487,7 @@
         <v>205</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D164" s="1">
         <v>1</v>
@@ -6416,7 +6501,7 @@
         <v>205</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="D165" s="1">
         <v>1</v>
@@ -6430,7 +6515,7 @@
         <v>205</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D166" s="1">
         <v>1</v>
@@ -6444,7 +6529,7 @@
         <v>205</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D167" s="1">
         <v>1</v>
@@ -6458,7 +6543,7 @@
         <v>205</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D168" s="1">
         <v>1</v>
@@ -6472,7 +6557,7 @@
         <v>205</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="D169" s="1">
         <v>1</v>
@@ -6486,7 +6571,7 @@
         <v>205</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D170" s="1">
         <v>1</v>
@@ -6500,7 +6585,7 @@
         <v>205</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="D171" s="1">
         <v>1</v>
@@ -6514,7 +6599,7 @@
         <v>205</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="D172" s="1">
         <v>1</v>
@@ -6528,7 +6613,7 @@
         <v>205</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="D173" s="1">
         <v>1</v>
@@ -6542,7 +6627,7 @@
         <v>205</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D174" s="1">
         <v>1</v>
@@ -6556,7 +6641,7 @@
         <v>205</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D175" s="1">
         <v>1</v>
@@ -6570,7 +6655,7 @@
         <v>205</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D176" s="1">
         <v>1</v>
@@ -6584,7 +6669,7 @@
         <v>205</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="D177" s="1">
         <v>1</v>
@@ -6598,7 +6683,7 @@
         <v>205</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="D178" s="1">
         <v>1</v>
@@ -6612,7 +6697,7 @@
         <v>205</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="D179" s="1">
         <v>1</v>
@@ -6626,7 +6711,7 @@
         <v>205</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="D180" s="1">
         <v>1</v>
@@ -6640,7 +6725,7 @@
         <v>205</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="D181" s="1">
         <v>1</v>
@@ -6654,7 +6739,7 @@
         <v>205</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="D182" s="1">
         <v>1</v>
@@ -6668,7 +6753,7 @@
         <v>205</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="D183" s="1">
         <v>1</v>
@@ -6682,7 +6767,7 @@
         <v>205</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="D184" s="1">
         <v>1</v>
@@ -6696,7 +6781,7 @@
         <v>205</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="D185" s="1">
         <v>1</v>
@@ -6710,7 +6795,7 @@
         <v>205</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="D186" s="1">
         <v>1</v>
@@ -6724,7 +6809,7 @@
         <v>205</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="D187" s="1">
         <v>1</v>
@@ -6738,7 +6823,7 @@
         <v>205</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="D188" s="1">
         <v>1</v>
@@ -6752,7 +6837,7 @@
         <v>205</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="D189" s="1">
         <v>1</v>
@@ -6766,7 +6851,7 @@
         <v>205</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="D190" s="1">
         <v>1</v>
@@ -6780,7 +6865,7 @@
         <v>205</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="D191" s="1">
         <v>1</v>
@@ -6794,7 +6879,7 @@
         <v>205</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="D192" s="1">
         <v>1</v>
@@ -6808,7 +6893,7 @@
         <v>205</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="D193" s="1">
         <v>1</v>
@@ -6822,7 +6907,7 @@
         <v>205</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="D194" s="1">
         <v>1</v>
@@ -6836,7 +6921,7 @@
         <v>205</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="D195" s="1">
         <v>1</v>
@@ -6850,7 +6935,7 @@
         <v>205</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="D196" s="1">
         <v>1</v>
@@ -6864,7 +6949,7 @@
         <v>205</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="D197" s="1">
         <v>1</v>
@@ -6878,7 +6963,7 @@
         <v>205</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="D198" s="1">
         <v>1</v>
@@ -6892,7 +6977,7 @@
         <v>205</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D199" s="1">
         <v>1</v>
@@ -6906,7 +6991,7 @@
         <v>205</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="D200" s="1">
         <v>1</v>
@@ -6920,7 +7005,7 @@
         <v>205</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="D201" s="1">
         <v>1</v>
@@ -6934,7 +7019,7 @@
         <v>205</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D202" s="1">
         <v>1</v>
@@ -6948,7 +7033,7 @@
         <v>205</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="D203" s="1">
         <v>1</v>
@@ -6962,7 +7047,7 @@
         <v>205</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="D204" s="1">
         <v>1</v>
@@ -6976,7 +7061,7 @@
         <v>205</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="D205" s="1">
         <v>1</v>
@@ -6990,7 +7075,7 @@
         <v>205</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="D206" s="1">
         <v>1</v>
@@ -7004,7 +7089,7 @@
         <v>205</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="D207" s="1">
         <v>1</v>
@@ -7018,7 +7103,7 @@
         <v>205</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="D208" s="1">
         <v>1</v>
@@ -7032,7 +7117,7 @@
         <v>205</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="D209" s="1">
         <v>1</v>
@@ -7046,7 +7131,7 @@
         <v>205</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="D210" s="1">
         <v>1</v>
@@ -7060,7 +7145,7 @@
         <v>205</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="D211" s="1">
         <v>1</v>
@@ -7074,7 +7159,7 @@
         <v>205</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D212" s="1">
         <v>1</v>
@@ -7088,7 +7173,7 @@
         <v>205</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="D213" s="1">
         <v>1</v>
@@ -7102,7 +7187,7 @@
         <v>205</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="D214" s="1">
         <v>1</v>
@@ -7116,7 +7201,7 @@
         <v>205</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="D215" s="1">
         <v>1</v>
@@ -7130,7 +7215,7 @@
         <v>205</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="D216" s="1">
         <v>1</v>
@@ -7144,7 +7229,7 @@
         <v>205</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="D217" s="1">
         <v>1</v>
@@ -7158,7 +7243,7 @@
         <v>205</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="D218" s="1">
         <v>1</v>
@@ -7172,7 +7257,7 @@
         <v>205</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="D219" s="1">
         <v>1</v>
@@ -7186,7 +7271,7 @@
         <v>205</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="D220" s="1">
         <v>1</v>
@@ -7200,7 +7285,7 @@
         <v>205</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="D221" s="1">
         <v>1</v>
@@ -7214,7 +7299,7 @@
         <v>205</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D222" s="1">
         <v>1</v>
@@ -7228,7 +7313,7 @@
         <v>205</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="D223" s="1">
         <v>1</v>
@@ -7242,7 +7327,7 @@
         <v>205</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="D224" s="1">
         <v>1</v>
@@ -7256,7 +7341,7 @@
         <v>205</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D225" s="1">
         <v>1</v>
@@ -7270,7 +7355,7 @@
         <v>205</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="D226" s="1">
         <v>1</v>
@@ -7284,7 +7369,7 @@
         <v>205</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="D227" s="1">
         <v>1</v>
@@ -7298,7 +7383,7 @@
         <v>205</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D228" s="1">
         <v>1</v>
@@ -7312,7 +7397,7 @@
         <v>205</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="D229" s="1">
         <v>1</v>
@@ -7326,7 +7411,7 @@
         <v>205</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D230" s="1">
         <v>1</v>
@@ -7340,7 +7425,7 @@
         <v>205</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D231" s="1">
         <v>1</v>
@@ -7354,7 +7439,7 @@
         <v>205</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="D232" s="1">
         <v>1</v>
@@ -7368,7 +7453,7 @@
         <v>205</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="D233" s="1">
         <v>1</v>
@@ -7382,7 +7467,7 @@
         <v>205</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="D234" s="1">
         <v>1</v>
@@ -7396,7 +7481,7 @@
         <v>205</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="D235" s="1">
         <v>1</v>
@@ -7410,7 +7495,7 @@
         <v>205</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D236" s="1">
         <v>1</v>
@@ -7424,7 +7509,7 @@
         <v>205</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D237" s="1">
         <v>1</v>
@@ -7438,7 +7523,7 @@
         <v>205</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="D238" s="1">
         <v>1</v>
@@ -7452,7 +7537,7 @@
         <v>205</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="D239" s="1">
         <v>1</v>
@@ -7466,7 +7551,7 @@
         <v>205</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D240" s="1">
         <v>1</v>
@@ -7480,7 +7565,7 @@
         <v>205</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="D241" s="1">
         <v>1</v>
@@ -7494,7 +7579,7 @@
         <v>205</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D242" s="1">
         <v>1</v>
@@ -7508,7 +7593,7 @@
         <v>205</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D243" s="1">
         <v>1</v>
@@ -7522,7 +7607,7 @@
         <v>205</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="D244" s="1">
         <v>1</v>
@@ -7536,7 +7621,7 @@
         <v>205</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="D245" s="1">
         <v>1</v>
@@ -7550,7 +7635,7 @@
         <v>205</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="D246" s="1">
         <v>1</v>
@@ -7564,7 +7649,7 @@
         <v>205</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="D247" s="1">
         <v>1</v>
@@ -7578,7 +7663,7 @@
         <v>205</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="D248" s="1">
         <v>1</v>
@@ -7592,7 +7677,7 @@
         <v>205</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="D249" s="1">
         <v>1</v>
@@ -7606,7 +7691,7 @@
         <v>205</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="D250" s="1">
         <v>1</v>
@@ -7620,7 +7705,7 @@
         <v>205</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D251" s="1">
         <v>1</v>
@@ -7634,7 +7719,7 @@
         <v>205</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="D252" s="1">
         <v>1</v>
@@ -7648,7 +7733,7 @@
         <v>205</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="D253" s="1">
         <v>1</v>
@@ -7662,7 +7747,7 @@
         <v>205</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="D254" s="1">
         <v>1</v>
@@ -7676,7 +7761,7 @@
         <v>205</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="D255" s="1">
         <v>1</v>
@@ -7690,7 +7775,7 @@
         <v>205</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="D256" s="1">
         <v>1</v>
@@ -7704,7 +7789,7 @@
         <v>205</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="D257" s="1">
         <v>1</v>
@@ -7718,7 +7803,7 @@
         <v>205</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="D258" s="1">
         <v>1</v>
@@ -7732,7 +7817,7 @@
         <v>205</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="D259" s="1">
         <v>1</v>
@@ -7746,7 +7831,7 @@
         <v>205</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="D260" s="1">
         <v>1</v>
@@ -7760,7 +7845,7 @@
         <v>205</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="D261" s="1">
         <v>1</v>
@@ -7774,7 +7859,7 @@
         <v>205</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="D262" s="1">
         <v>1</v>
@@ -7788,7 +7873,7 @@
         <v>205</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="D263" s="1">
         <v>1</v>
@@ -7802,7 +7887,7 @@
         <v>205</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="D264" s="1">
         <v>1</v>
@@ -7816,7 +7901,7 @@
         <v>205</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="D265" s="1">
         <v>1</v>
@@ -7830,7 +7915,7 @@
         <v>205</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D266" s="1">
         <v>1</v>
@@ -7844,7 +7929,7 @@
         <v>205</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="D267" s="1">
         <v>1</v>
@@ -7858,7 +7943,7 @@
         <v>205</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="D268" s="1">
         <v>1</v>
@@ -7872,7 +7957,7 @@
         <v>205</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="D269" s="1">
         <v>1</v>
@@ -7886,7 +7971,7 @@
         <v>205</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="D270" s="1">
         <v>1</v>
@@ -7900,7 +7985,7 @@
         <v>205</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D271" s="1">
         <v>1</v>
@@ -7914,7 +7999,7 @@
         <v>205</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="D272" s="1">
         <v>1</v>
@@ -7928,7 +8013,7 @@
         <v>205</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="D273" s="1">
         <v>1</v>
@@ -7942,7 +8027,7 @@
         <v>205</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="D274" s="1">
         <v>1</v>
@@ -7956,7 +8041,7 @@
         <v>205</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="D275" s="1">
         <v>1</v>
@@ -7970,7 +8055,7 @@
         <v>205</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="D276" s="1">
         <v>1</v>
@@ -7984,7 +8069,7 @@
         <v>205</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="D277" s="1">
         <v>1</v>
@@ -7998,7 +8083,7 @@
         <v>205</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="D278" s="1">
         <v>1</v>
@@ -8012,7 +8097,7 @@
         <v>205</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="D279" s="1">
         <v>1</v>
@@ -8026,7 +8111,7 @@
         <v>205</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="D280" s="1">
         <v>1</v>
@@ -8040,7 +8125,7 @@
         <v>205</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="D281" s="1">
         <v>1</v>
@@ -8054,7 +8139,7 @@
         <v>205</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="D282" s="1">
         <v>1</v>
@@ -8068,7 +8153,7 @@
         <v>205</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="D283" s="1">
         <v>1</v>
@@ -8082,7 +8167,7 @@
         <v>205</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="D284" s="1">
         <v>1</v>
@@ -8096,7 +8181,7 @@
         <v>205</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="D285" s="1">
         <v>1</v>
@@ -8110,7 +8195,7 @@
         <v>205</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="D286" s="1">
         <v>1</v>
@@ -8124,7 +8209,7 @@
         <v>205</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="D287" s="1">
         <v>1</v>
@@ -8138,7 +8223,7 @@
         <v>205</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="D288" s="1">
         <v>1</v>
@@ -8152,7 +8237,7 @@
         <v>205</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="D289" s="1">
         <v>1</v>
@@ -8166,7 +8251,7 @@
         <v>205</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="D290" s="1">
         <v>1</v>
@@ -8180,7 +8265,7 @@
         <v>205</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="D291" s="1">
         <v>1</v>
@@ -8194,7 +8279,7 @@
         <v>205</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="D292" s="1">
         <v>1</v>
@@ -8208,7 +8293,7 @@
         <v>205</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="D293" s="1">
         <v>1</v>
@@ -8222,7 +8307,7 @@
         <v>205</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="D294" s="1">
         <v>1</v>
@@ -8236,7 +8321,7 @@
         <v>205</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="D295" s="1">
         <v>1</v>
@@ -8250,7 +8335,7 @@
         <v>205</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="D296" s="1">
         <v>1</v>
@@ -8328,7 +8413,7 @@
       <c r="C4" s="24" t="s">
         <v>297</v>
       </c>
-      <c r="D4" s="26">
+      <c r="D4" s="25">
         <v>9</v>
       </c>
     </row>
@@ -8342,7 +8427,7 @@
       <c r="C5" s="24" t="s">
         <v>298</v>
       </c>
-      <c r="D5" s="26">
+      <c r="D5" s="25">
         <v>9</v>
       </c>
     </row>
@@ -8356,7 +8441,7 @@
       <c r="C6" s="24" t="s">
         <v>299</v>
       </c>
-      <c r="D6" s="26">
+      <c r="D6" s="25">
         <v>9</v>
       </c>
     </row>
@@ -8370,7 +8455,7 @@
       <c r="C7" s="24" t="s">
         <v>300</v>
       </c>
-      <c r="D7" s="26">
+      <c r="D7" s="25">
         <v>9</v>
       </c>
     </row>
@@ -8384,7 +8469,7 @@
       <c r="C8" s="24" t="s">
         <v>301</v>
       </c>
-      <c r="D8" s="26">
+      <c r="D8" s="25">
         <v>9</v>
       </c>
     </row>
@@ -8440,7 +8525,7 @@
       <c r="C12" s="24" t="s">
         <v>302</v>
       </c>
-      <c r="D12" s="26">
+      <c r="D12" s="25">
         <v>7</v>
       </c>
     </row>
@@ -8454,7 +8539,7 @@
       <c r="C13" s="24" t="s">
         <v>303</v>
       </c>
-      <c r="D13" s="26">
+      <c r="D13" s="25">
         <v>7</v>
       </c>
     </row>
@@ -8462,11 +8547,11 @@
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="26" t="s">
         <v>205</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D14" s="1">
         <v>6</v>
@@ -8479,7 +8564,7 @@
       <c r="B15" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="C15" s="26" t="s">
         <v>208</v>
       </c>
       <c r="D15" s="1">
@@ -8494,7 +8579,7 @@
         <v>226</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D16" s="1">
         <v>5</v>
@@ -8522,7 +8607,7 @@
         <v>205</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D18" s="1">
         <v>4</v>
@@ -8536,7 +8621,7 @@
         <v>205</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D19" s="1">
         <v>4</v>
@@ -8620,7 +8705,7 @@
         <v>226</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D25" s="1">
         <v>2</v>
@@ -8634,7 +8719,7 @@
         <v>205</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="D26" s="1">
         <v>2</v>
@@ -8647,7 +8732,7 @@
       <c r="B27" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C27" s="30" t="s">
+      <c r="C27" s="26" t="s">
         <v>219</v>
       </c>
       <c r="D27" s="1">
@@ -8692,7 +8777,7 @@
       <c r="C30" s="24" t="s">
         <v>273</v>
       </c>
-      <c r="D30" s="26">
+      <c r="D30" s="25">
         <v>2</v>
       </c>
     </row>
@@ -8706,7 +8791,7 @@
       <c r="C31" s="24" t="s">
         <v>305</v>
       </c>
-      <c r="D31" s="26">
+      <c r="D31" s="25">
         <v>2</v>
       </c>
     </row>
@@ -8731,7 +8816,7 @@
       <c r="B33" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="C33" s="30" t="s">
+      <c r="C33" s="26" t="s">
         <v>208</v>
       </c>
       <c r="D33" s="1">
@@ -8745,7 +8830,7 @@
       <c r="B34" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="C34" s="30" t="s">
+      <c r="C34" s="26" t="s">
         <v>219</v>
       </c>
       <c r="D34" s="1">
@@ -8774,7 +8859,7 @@
         <v>226</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D36" s="1">
         <v>1</v>
@@ -8788,7 +8873,7 @@
         <v>226</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D37" s="1">
         <v>1</v>
@@ -8802,7 +8887,7 @@
         <v>226</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D38" s="1">
         <v>1</v>
@@ -8900,7 +8985,7 @@
         <v>205</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D45" s="1">
         <v>1</v>
@@ -8910,7 +8995,7 @@
       <c r="A46" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B46" s="30" t="s">
+      <c r="B46" s="26" t="s">
         <v>205</v>
       </c>
       <c r="C46" s="1" t="s">
@@ -8924,7 +9009,7 @@
       <c r="A47" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B47" s="30" t="s">
+      <c r="B47" s="26" t="s">
         <v>205</v>
       </c>
       <c r="C47" s="1" t="s">
@@ -8938,7 +9023,7 @@
       <c r="A48" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B48" s="30" t="s">
+      <c r="B48" s="26" t="s">
         <v>205</v>
       </c>
       <c r="C48" s="1" t="s">
@@ -8952,7 +9037,7 @@
       <c r="A49" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B49" s="30" t="s">
+      <c r="B49" s="26" t="s">
         <v>205</v>
       </c>
       <c r="C49" s="1" t="s">
@@ -9012,7 +9097,7 @@
         <v>241</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D53" s="1">
         <v>1</v>
@@ -9028,7 +9113,7 @@
       <c r="C54" s="24" t="s">
         <v>271</v>
       </c>
-      <c r="D54" s="26">
+      <c r="D54" s="25">
         <v>1</v>
       </c>
     </row>
@@ -9042,7 +9127,7 @@
       <c r="C55" s="24" t="s">
         <v>272</v>
       </c>
-      <c r="D55" s="26">
+      <c r="D55" s="25">
         <v>1</v>
       </c>
     </row>
@@ -9056,7 +9141,7 @@
       <c r="C56" s="24" t="s">
         <v>274</v>
       </c>
-      <c r="D56" s="26">
+      <c r="D56" s="25">
         <v>1</v>
       </c>
     </row>
@@ -9070,7 +9155,7 @@
       <c r="C57" s="24" t="s">
         <v>275</v>
       </c>
-      <c r="D57" s="26">
+      <c r="D57" s="25">
         <v>1</v>
       </c>
     </row>
@@ -9084,7 +9169,7 @@
       <c r="C58" s="24" t="s">
         <v>276</v>
       </c>
-      <c r="D58" s="26">
+      <c r="D58" s="25">
         <v>1</v>
       </c>
     </row>
@@ -9098,7 +9183,7 @@
       <c r="C59" s="24" t="s">
         <v>277</v>
       </c>
-      <c r="D59" s="26">
+      <c r="D59" s="25">
         <v>1</v>
       </c>
     </row>
@@ -9112,7 +9197,7 @@
       <c r="C60" s="24" t="s">
         <v>278</v>
       </c>
-      <c r="D60" s="26">
+      <c r="D60" s="25">
         <v>1</v>
       </c>
     </row>
@@ -9126,7 +9211,7 @@
       <c r="C61" s="24" t="s">
         <v>279</v>
       </c>
-      <c r="D61" s="26">
+      <c r="D61" s="25">
         <v>1</v>
       </c>
     </row>
@@ -9140,7 +9225,7 @@
       <c r="C62" s="24" t="s">
         <v>280</v>
       </c>
-      <c r="D62" s="26">
+      <c r="D62" s="25">
         <v>1</v>
       </c>
     </row>
@@ -9154,7 +9239,7 @@
       <c r="C63" s="24" t="s">
         <v>281</v>
       </c>
-      <c r="D63" s="26">
+      <c r="D63" s="25">
         <v>1</v>
       </c>
     </row>
@@ -9168,7 +9253,7 @@
       <c r="C64" s="24" t="s">
         <v>282</v>
       </c>
-      <c r="D64" s="26">
+      <c r="D64" s="25">
         <v>1</v>
       </c>
     </row>
@@ -9182,7 +9267,7 @@
       <c r="C65" s="24" t="s">
         <v>283</v>
       </c>
-      <c r="D65" s="26">
+      <c r="D65" s="25">
         <v>1</v>
       </c>
     </row>
@@ -9196,7 +9281,7 @@
       <c r="C66" s="24" t="s">
         <v>284</v>
       </c>
-      <c r="D66" s="26">
+      <c r="D66" s="25">
         <v>1</v>
       </c>
     </row>
@@ -9210,7 +9295,7 @@
       <c r="C67" s="24" t="s">
         <v>285</v>
       </c>
-      <c r="D67" s="26">
+      <c r="D67" s="25">
         <v>1</v>
       </c>
     </row>
@@ -9224,7 +9309,7 @@
       <c r="C68" s="24" t="s">
         <v>286</v>
       </c>
-      <c r="D68" s="26">
+      <c r="D68" s="25">
         <v>1</v>
       </c>
     </row>
@@ -9238,7 +9323,7 @@
       <c r="C69" s="24" t="s">
         <v>287</v>
       </c>
-      <c r="D69" s="26">
+      <c r="D69" s="25">
         <v>1</v>
       </c>
     </row>
@@ -9252,7 +9337,7 @@
       <c r="C70" s="24" t="s">
         <v>288</v>
       </c>
-      <c r="D70" s="26">
+      <c r="D70" s="25">
         <v>1</v>
       </c>
     </row>
@@ -9266,7 +9351,7 @@
       <c r="C71" s="24" t="s">
         <v>289</v>
       </c>
-      <c r="D71" s="26">
+      <c r="D71" s="25">
         <v>1</v>
       </c>
     </row>
@@ -9280,7 +9365,7 @@
       <c r="C72" s="24" t="s">
         <v>290</v>
       </c>
-      <c r="D72" s="26">
+      <c r="D72" s="25">
         <v>1</v>
       </c>
     </row>
@@ -9294,7 +9379,7 @@
       <c r="C73" s="24" t="s">
         <v>291</v>
       </c>
-      <c r="D73" s="26">
+      <c r="D73" s="25">
         <v>1</v>
       </c>
     </row>
@@ -9308,7 +9393,7 @@
       <c r="C74" s="24" t="s">
         <v>292</v>
       </c>
-      <c r="D74" s="26">
+      <c r="D74" s="25">
         <v>1</v>
       </c>
     </row>
@@ -9322,7 +9407,7 @@
       <c r="C75" s="24" t="s">
         <v>293</v>
       </c>
-      <c r="D75" s="26">
+      <c r="D75" s="25">
         <v>1</v>
       </c>
     </row>
@@ -9336,7 +9421,7 @@
       <c r="C76" s="24" t="s">
         <v>294</v>
       </c>
-      <c r="D76" s="26">
+      <c r="D76" s="25">
         <v>1</v>
       </c>
     </row>
@@ -9350,7 +9435,7 @@
       <c r="C77" s="24" t="s">
         <v>295</v>
       </c>
-      <c r="D77" s="26">
+      <c r="D77" s="25">
         <v>1</v>
       </c>
     </row>
@@ -9364,7 +9449,7 @@
       <c r="C78" s="24" t="s">
         <v>296</v>
       </c>
-      <c r="D78" s="26">
+      <c r="D78" s="25">
         <v>1</v>
       </c>
     </row>
@@ -9378,7 +9463,7 @@
       <c r="C79" s="24" t="s">
         <v>273</v>
       </c>
-      <c r="D79" s="26">
+      <c r="D79" s="25">
         <v>1</v>
       </c>
     </row>
@@ -9392,7 +9477,7 @@
       <c r="C80" s="24" t="s">
         <v>304</v>
       </c>
-      <c r="D80" s="26">
+      <c r="D80" s="25">
         <v>1</v>
       </c>
     </row>
@@ -9406,7 +9491,7 @@
       <c r="C81" s="24" t="s">
         <v>306</v>
       </c>
-      <c r="D81" s="26">
+      <c r="D81" s="25">
         <v>1</v>
       </c>
     </row>
@@ -9420,7 +9505,7 @@
       <c r="C82" s="24" t="s">
         <v>307</v>
       </c>
-      <c r="D82" s="26">
+      <c r="D82" s="25">
         <v>1</v>
       </c>
     </row>
@@ -9434,7 +9519,7 @@
       <c r="C83" s="24" t="s">
         <v>308</v>
       </c>
-      <c r="D83" s="26">
+      <c r="D83" s="25">
         <v>1</v>
       </c>
     </row>
@@ -9448,7 +9533,7 @@
       <c r="C84" s="24" t="s">
         <v>309</v>
       </c>
-      <c r="D84" s="26">
+      <c r="D84" s="25">
         <v>1</v>
       </c>
     </row>
@@ -9462,7 +9547,7 @@
       <c r="C85" s="24" t="s">
         <v>310</v>
       </c>
-      <c r="D85" s="26">
+      <c r="D85" s="25">
         <v>1</v>
       </c>
     </row>
@@ -9476,7 +9561,7 @@
       <c r="C86" s="24" t="s">
         <v>311</v>
       </c>
-      <c r="D86" s="26">
+      <c r="D86" s="25">
         <v>1</v>
       </c>
     </row>
@@ -9490,7 +9575,7 @@
       <c r="C87" s="24" t="s">
         <v>237</v>
       </c>
-      <c r="D87" s="26">
+      <c r="D87" s="25">
         <v>1</v>
       </c>
     </row>
@@ -9504,7 +9589,7 @@
       <c r="C88" s="24" t="s">
         <v>238</v>
       </c>
-      <c r="D88" s="26">
+      <c r="D88" s="25">
         <v>1</v>
       </c>
     </row>
@@ -9518,7 +9603,7 @@
       <c r="C89" s="24" t="s">
         <v>239</v>
       </c>
-      <c r="D89" s="26">
+      <c r="D89" s="25">
         <v>1</v>
       </c>
     </row>
@@ -9532,7 +9617,7 @@
       <c r="C90" s="24" t="s">
         <v>240</v>
       </c>
-      <c r="D90" s="26">
+      <c r="D90" s="25">
         <v>1</v>
       </c>
     </row>
@@ -9546,7 +9631,7 @@
       <c r="C91" s="24" t="s">
         <v>313</v>
       </c>
-      <c r="D91" s="26">
+      <c r="D91" s="25">
         <v>1</v>
       </c>
     </row>
@@ -9560,7 +9645,7 @@
       <c r="C92" s="24" t="s">
         <v>315</v>
       </c>
-      <c r="D92" s="26">
+      <c r="D92" s="25">
         <v>1</v>
       </c>
     </row>
@@ -9574,7 +9659,7 @@
       <c r="C93" s="24" t="s">
         <v>316</v>
       </c>
-      <c r="D93" s="26">
+      <c r="D93" s="25">
         <v>1</v>
       </c>
     </row>
@@ -9588,7 +9673,7 @@
       <c r="C94" s="24" t="s">
         <v>317</v>
       </c>
-      <c r="D94" s="26">
+      <c r="D94" s="25">
         <v>1</v>
       </c>
     </row>
@@ -9602,7 +9687,7 @@
       <c r="C95" s="24" t="s">
         <v>318</v>
       </c>
-      <c r="D95" s="26">
+      <c r="D95" s="25">
         <v>1</v>
       </c>
     </row>
@@ -9616,7 +9701,7 @@
       <c r="C96" s="24" t="s">
         <v>319</v>
       </c>
-      <c r="D96" s="26">
+      <c r="D96" s="25">
         <v>1</v>
       </c>
     </row>
@@ -9630,7 +9715,7 @@
       <c r="C97" s="24" t="s">
         <v>320</v>
       </c>
-      <c r="D97" s="26">
+      <c r="D97" s="25">
         <v>1</v>
       </c>
     </row>
@@ -9644,7 +9729,7 @@
       <c r="C98" s="24" t="s">
         <v>321</v>
       </c>
-      <c r="D98" s="26">
+      <c r="D98" s="25">
         <v>1</v>
       </c>
     </row>
@@ -9658,7 +9743,7 @@
       <c r="C99" s="24" t="s">
         <v>322</v>
       </c>
-      <c r="D99" s="26">
+      <c r="D99" s="25">
         <v>1</v>
       </c>
     </row>
@@ -9672,7 +9757,7 @@
       <c r="C100" s="24" t="s">
         <v>323</v>
       </c>
-      <c r="D100" s="26">
+      <c r="D100" s="25">
         <v>1</v>
       </c>
     </row>
@@ -9686,7 +9771,7 @@
       <c r="C101" s="24" t="s">
         <v>324</v>
       </c>
-      <c r="D101" s="26">
+      <c r="D101" s="25">
         <v>1</v>
       </c>
     </row>
@@ -9700,7 +9785,7 @@
       <c r="C102" s="24" t="s">
         <v>325</v>
       </c>
-      <c r="D102" s="26">
+      <c r="D102" s="25">
         <v>1</v>
       </c>
     </row>
@@ -9714,7 +9799,7 @@
       <c r="C103" s="24" t="s">
         <v>326</v>
       </c>
-      <c r="D103" s="26">
+      <c r="D103" s="25">
         <v>1</v>
       </c>
     </row>
@@ -9728,7 +9813,7 @@
       <c r="C104" s="24" t="s">
         <v>327</v>
       </c>
-      <c r="D104" s="26">
+      <c r="D104" s="25">
         <v>1</v>
       </c>
     </row>
@@ -9740,9 +9825,9 @@
         <v>205</v>
       </c>
       <c r="C105" s="24" t="s">
-        <v>329</v>
-      </c>
-      <c r="D105" s="26">
+        <v>328</v>
+      </c>
+      <c r="D105" s="25">
         <v>1</v>
       </c>
     </row>
@@ -9754,9 +9839,9 @@
         <v>205</v>
       </c>
       <c r="C106" s="24" t="s">
-        <v>331</v>
-      </c>
-      <c r="D106" s="26">
+        <v>329</v>
+      </c>
+      <c r="D106" s="25">
         <v>1</v>
       </c>
     </row>
@@ -9768,9 +9853,9 @@
         <v>205</v>
       </c>
       <c r="C107" s="24" t="s">
-        <v>333</v>
-      </c>
-      <c r="D107" s="26">
+        <v>330</v>
+      </c>
+      <c r="D107" s="25">
         <v>1</v>
       </c>
     </row>
@@ -9782,9 +9867,9 @@
         <v>205</v>
       </c>
       <c r="C108" s="24" t="s">
-        <v>336</v>
-      </c>
-      <c r="D108" s="26">
+        <v>333</v>
+      </c>
+      <c r="D108" s="25">
         <v>1</v>
       </c>
     </row>
@@ -9796,9 +9881,9 @@
         <v>205</v>
       </c>
       <c r="C109" s="24" t="s">
-        <v>337</v>
-      </c>
-      <c r="D109" s="26">
+        <v>334</v>
+      </c>
+      <c r="D109" s="25">
         <v>1</v>
       </c>
     </row>
@@ -9810,9 +9895,9 @@
         <v>205</v>
       </c>
       <c r="C110" s="24" t="s">
-        <v>338</v>
-      </c>
-      <c r="D110" s="26">
+        <v>335</v>
+      </c>
+      <c r="D110" s="25">
         <v>1</v>
       </c>
     </row>
@@ -9824,9 +9909,9 @@
         <v>205</v>
       </c>
       <c r="C111" s="24" t="s">
-        <v>339</v>
-      </c>
-      <c r="D111" s="26">
+        <v>336</v>
+      </c>
+      <c r="D111" s="25">
         <v>1</v>
       </c>
     </row>
@@ -9838,9 +9923,9 @@
         <v>205</v>
       </c>
       <c r="C112" s="24" t="s">
-        <v>340</v>
-      </c>
-      <c r="D112" s="26">
+        <v>337</v>
+      </c>
+      <c r="D112" s="25">
         <v>1</v>
       </c>
     </row>
@@ -9852,9 +9937,9 @@
         <v>205</v>
       </c>
       <c r="C113" s="24" t="s">
-        <v>341</v>
-      </c>
-      <c r="D113" s="26">
+        <v>338</v>
+      </c>
+      <c r="D113" s="25">
         <v>1</v>
       </c>
     </row>
@@ -9866,9 +9951,9 @@
         <v>205</v>
       </c>
       <c r="C114" s="24" t="s">
-        <v>342</v>
-      </c>
-      <c r="D114" s="26">
+        <v>339</v>
+      </c>
+      <c r="D114" s="25">
         <v>1</v>
       </c>
     </row>
@@ -9880,9 +9965,9 @@
         <v>205</v>
       </c>
       <c r="C115" s="24" t="s">
-        <v>343</v>
-      </c>
-      <c r="D115" s="26">
+        <v>340</v>
+      </c>
+      <c r="D115" s="25">
         <v>1</v>
       </c>
     </row>
@@ -9894,9 +9979,9 @@
         <v>205</v>
       </c>
       <c r="C116" s="24" t="s">
-        <v>344</v>
-      </c>
-      <c r="D116" s="26">
+        <v>341</v>
+      </c>
+      <c r="D116" s="25">
         <v>1</v>
       </c>
     </row>
@@ -9908,9 +9993,9 @@
         <v>205</v>
       </c>
       <c r="C117" s="24" t="s">
-        <v>346</v>
-      </c>
-      <c r="D117" s="26">
+        <v>343</v>
+      </c>
+      <c r="D117" s="25">
         <v>1</v>
       </c>
     </row>
@@ -9922,9 +10007,9 @@
         <v>205</v>
       </c>
       <c r="C118" s="24" t="s">
-        <v>347</v>
-      </c>
-      <c r="D118" s="26">
+        <v>344</v>
+      </c>
+      <c r="D118" s="25">
         <v>1</v>
       </c>
     </row>
@@ -9936,9 +10021,9 @@
         <v>205</v>
       </c>
       <c r="C119" s="24" t="s">
-        <v>349</v>
-      </c>
-      <c r="D119" s="26">
+        <v>346</v>
+      </c>
+      <c r="D119" s="25">
         <v>1</v>
       </c>
     </row>
@@ -9950,9 +10035,9 @@
         <v>205</v>
       </c>
       <c r="C120" s="24" t="s">
-        <v>350</v>
-      </c>
-      <c r="D120" s="26">
+        <v>347</v>
+      </c>
+      <c r="D120" s="25">
         <v>1</v>
       </c>
     </row>
@@ -9964,9 +10049,9 @@
         <v>205</v>
       </c>
       <c r="C121" s="24" t="s">
-        <v>352</v>
-      </c>
-      <c r="D121" s="26">
+        <v>349</v>
+      </c>
+      <c r="D121" s="25">
         <v>1</v>
       </c>
     </row>
@@ -9978,9 +10063,9 @@
         <v>205</v>
       </c>
       <c r="C122" s="24" t="s">
-        <v>354</v>
-      </c>
-      <c r="D122" s="26">
+        <v>351</v>
+      </c>
+      <c r="D122" s="25">
         <v>1</v>
       </c>
     </row>
@@ -9992,9 +10077,9 @@
         <v>205</v>
       </c>
       <c r="C123" s="24" t="s">
-        <v>355</v>
-      </c>
-      <c r="D123" s="26">
+        <v>352</v>
+      </c>
+      <c r="D123" s="25">
         <v>1</v>
       </c>
     </row>
@@ -10006,9 +10091,9 @@
         <v>205</v>
       </c>
       <c r="C124" s="24" t="s">
-        <v>356</v>
-      </c>
-      <c r="D124" s="26">
+        <v>353</v>
+      </c>
+      <c r="D124" s="25">
         <v>1</v>
       </c>
     </row>
@@ -10020,9 +10105,9 @@
         <v>205</v>
       </c>
       <c r="C125" s="24" t="s">
-        <v>358</v>
-      </c>
-      <c r="D125" s="26">
+        <v>355</v>
+      </c>
+      <c r="D125" s="25">
         <v>1</v>
       </c>
     </row>
@@ -10034,9 +10119,9 @@
         <v>205</v>
       </c>
       <c r="C126" s="24" t="s">
-        <v>359</v>
-      </c>
-      <c r="D126" s="26">
+        <v>356</v>
+      </c>
+      <c r="D126" s="25">
         <v>1</v>
       </c>
     </row>
@@ -10048,9 +10133,9 @@
         <v>205</v>
       </c>
       <c r="C127" s="24" t="s">
-        <v>360</v>
-      </c>
-      <c r="D127" s="26">
+        <v>357</v>
+      </c>
+      <c r="D127" s="25">
         <v>1</v>
       </c>
     </row>
@@ -10062,9 +10147,9 @@
         <v>205</v>
       </c>
       <c r="C128" s="24" t="s">
-        <v>361</v>
-      </c>
-      <c r="D128" s="26">
+        <v>358</v>
+      </c>
+      <c r="D128" s="25">
         <v>1</v>
       </c>
     </row>
@@ -10076,9 +10161,9 @@
         <v>205</v>
       </c>
       <c r="C129" s="24" t="s">
-        <v>363</v>
-      </c>
-      <c r="D129" s="26">
+        <v>360</v>
+      </c>
+      <c r="D129" s="25">
         <v>1</v>
       </c>
     </row>
@@ -10090,9 +10175,9 @@
         <v>205</v>
       </c>
       <c r="C130" s="24" t="s">
-        <v>365</v>
-      </c>
-      <c r="D130" s="26">
+        <v>362</v>
+      </c>
+      <c r="D130" s="25">
         <v>1</v>
       </c>
     </row>
@@ -10104,9 +10189,9 @@
         <v>205</v>
       </c>
       <c r="C131" s="24" t="s">
-        <v>366</v>
-      </c>
-      <c r="D131" s="26">
+        <v>363</v>
+      </c>
+      <c r="D131" s="25">
         <v>1</v>
       </c>
     </row>
@@ -10118,9 +10203,9 @@
         <v>205</v>
       </c>
       <c r="C132" s="24" t="s">
-        <v>367</v>
-      </c>
-      <c r="D132" s="26">
+        <v>364</v>
+      </c>
+      <c r="D132" s="25">
         <v>1</v>
       </c>
     </row>
@@ -10132,9 +10217,9 @@
         <v>205</v>
       </c>
       <c r="C133" s="24" t="s">
-        <v>368</v>
-      </c>
-      <c r="D133" s="26">
+        <v>365</v>
+      </c>
+      <c r="D133" s="25">
         <v>1</v>
       </c>
     </row>
@@ -10146,9 +10231,9 @@
         <v>205</v>
       </c>
       <c r="C134" s="24" t="s">
-        <v>369</v>
-      </c>
-      <c r="D134" s="26">
+        <v>366</v>
+      </c>
+      <c r="D134" s="25">
         <v>1</v>
       </c>
     </row>
@@ -10160,9 +10245,9 @@
         <v>205</v>
       </c>
       <c r="C135" s="24" t="s">
-        <v>370</v>
-      </c>
-      <c r="D135" s="26">
+        <v>367</v>
+      </c>
+      <c r="D135" s="25">
         <v>1</v>
       </c>
     </row>
@@ -10174,9 +10259,9 @@
         <v>205</v>
       </c>
       <c r="C136" s="24" t="s">
-        <v>371</v>
-      </c>
-      <c r="D136" s="26">
+        <v>368</v>
+      </c>
+      <c r="D136" s="25">
         <v>1</v>
       </c>
     </row>
@@ -10188,9 +10273,9 @@
         <v>205</v>
       </c>
       <c r="C137" s="24" t="s">
-        <v>372</v>
-      </c>
-      <c r="D137" s="26">
+        <v>369</v>
+      </c>
+      <c r="D137" s="25">
         <v>1</v>
       </c>
     </row>
@@ -10202,9 +10287,9 @@
         <v>205</v>
       </c>
       <c r="C138" s="24" t="s">
-        <v>373</v>
-      </c>
-      <c r="D138" s="26">
+        <v>370</v>
+      </c>
+      <c r="D138" s="25">
         <v>1</v>
       </c>
     </row>
@@ -10216,9 +10301,9 @@
         <v>205</v>
       </c>
       <c r="C139" s="24" t="s">
-        <v>374</v>
-      </c>
-      <c r="D139" s="26">
+        <v>371</v>
+      </c>
+      <c r="D139" s="25">
         <v>1</v>
       </c>
     </row>
@@ -10230,9 +10315,9 @@
         <v>205</v>
       </c>
       <c r="C140" s="24" t="s">
-        <v>375</v>
-      </c>
-      <c r="D140" s="26">
+        <v>372</v>
+      </c>
+      <c r="D140" s="25">
         <v>1</v>
       </c>
     </row>
@@ -10244,9 +10329,9 @@
         <v>205</v>
       </c>
       <c r="C141" s="24" t="s">
-        <v>376</v>
-      </c>
-      <c r="D141" s="26">
+        <v>373</v>
+      </c>
+      <c r="D141" s="25">
         <v>1</v>
       </c>
     </row>
@@ -10258,9 +10343,9 @@
         <v>205</v>
       </c>
       <c r="C142" s="24" t="s">
-        <v>377</v>
-      </c>
-      <c r="D142" s="26">
+        <v>374</v>
+      </c>
+      <c r="D142" s="25">
         <v>1</v>
       </c>
     </row>
@@ -10272,9 +10357,9 @@
         <v>205</v>
       </c>
       <c r="C143" s="24" t="s">
-        <v>378</v>
-      </c>
-      <c r="D143" s="26">
+        <v>375</v>
+      </c>
+      <c r="D143" s="25">
         <v>1</v>
       </c>
     </row>
@@ -10286,9 +10371,9 @@
         <v>205</v>
       </c>
       <c r="C144" s="24" t="s">
-        <v>379</v>
-      </c>
-      <c r="D144" s="26">
+        <v>376</v>
+      </c>
+      <c r="D144" s="25">
         <v>1</v>
       </c>
     </row>
@@ -10300,9 +10385,9 @@
         <v>205</v>
       </c>
       <c r="C145" s="24" t="s">
-        <v>380</v>
-      </c>
-      <c r="D145" s="26">
+        <v>377</v>
+      </c>
+      <c r="D145" s="25">
         <v>1</v>
       </c>
     </row>
@@ -10314,9 +10399,9 @@
         <v>205</v>
       </c>
       <c r="C146" s="24" t="s">
-        <v>381</v>
-      </c>
-      <c r="D146" s="26">
+        <v>378</v>
+      </c>
+      <c r="D146" s="25">
         <v>1</v>
       </c>
     </row>
@@ -10328,9 +10413,9 @@
         <v>205</v>
       </c>
       <c r="C147" s="24" t="s">
-        <v>382</v>
-      </c>
-      <c r="D147" s="26">
+        <v>379</v>
+      </c>
+      <c r="D147" s="25">
         <v>1</v>
       </c>
     </row>
@@ -10342,9 +10427,9 @@
         <v>205</v>
       </c>
       <c r="C148" s="24" t="s">
-        <v>383</v>
-      </c>
-      <c r="D148" s="26">
+        <v>380</v>
+      </c>
+      <c r="D148" s="25">
         <v>1</v>
       </c>
     </row>
@@ -10356,9 +10441,9 @@
         <v>205</v>
       </c>
       <c r="C149" s="24" t="s">
-        <v>384</v>
-      </c>
-      <c r="D149" s="26">
+        <v>381</v>
+      </c>
+      <c r="D149" s="25">
         <v>1</v>
       </c>
     </row>
@@ -10370,9 +10455,9 @@
         <v>205</v>
       </c>
       <c r="C150" s="24" t="s">
-        <v>386</v>
-      </c>
-      <c r="D150" s="26">
+        <v>383</v>
+      </c>
+      <c r="D150" s="25">
         <v>1</v>
       </c>
     </row>
@@ -10384,9 +10469,9 @@
         <v>205</v>
       </c>
       <c r="C151" s="24" t="s">
-        <v>388</v>
-      </c>
-      <c r="D151" s="26">
+        <v>385</v>
+      </c>
+      <c r="D151" s="25">
         <v>1</v>
       </c>
     </row>
@@ -10398,9 +10483,9 @@
         <v>205</v>
       </c>
       <c r="C152" s="24" t="s">
-        <v>390</v>
-      </c>
-      <c r="D152" s="26">
+        <v>387</v>
+      </c>
+      <c r="D152" s="25">
         <v>1</v>
       </c>
     </row>
@@ -10412,9 +10497,9 @@
         <v>205</v>
       </c>
       <c r="C153" s="24" t="s">
-        <v>391</v>
-      </c>
-      <c r="D153" s="26">
+        <v>388</v>
+      </c>
+      <c r="D153" s="25">
         <v>1</v>
       </c>
     </row>
@@ -10426,9 +10511,9 @@
         <v>205</v>
       </c>
       <c r="C154" s="24" t="s">
-        <v>392</v>
-      </c>
-      <c r="D154" s="26">
+        <v>389</v>
+      </c>
+      <c r="D154" s="25">
         <v>1</v>
       </c>
     </row>
@@ -10440,9 +10525,9 @@
         <v>205</v>
       </c>
       <c r="C155" s="24" t="s">
-        <v>393</v>
-      </c>
-      <c r="D155" s="26">
+        <v>390</v>
+      </c>
+      <c r="D155" s="25">
         <v>1</v>
       </c>
     </row>
@@ -10454,9 +10539,9 @@
         <v>205</v>
       </c>
       <c r="C156" s="24" t="s">
-        <v>394</v>
-      </c>
-      <c r="D156" s="26">
+        <v>391</v>
+      </c>
+      <c r="D156" s="25">
         <v>1</v>
       </c>
     </row>
@@ -10468,9 +10553,9 @@
         <v>205</v>
       </c>
       <c r="C157" s="24" t="s">
-        <v>395</v>
-      </c>
-      <c r="D157" s="26">
+        <v>392</v>
+      </c>
+      <c r="D157" s="25">
         <v>1</v>
       </c>
     </row>
@@ -10482,9 +10567,9 @@
         <v>205</v>
       </c>
       <c r="C158" s="24" t="s">
-        <v>396</v>
-      </c>
-      <c r="D158" s="26">
+        <v>393</v>
+      </c>
+      <c r="D158" s="25">
         <v>1</v>
       </c>
     </row>
@@ -10496,9 +10581,9 @@
         <v>205</v>
       </c>
       <c r="C159" s="24" t="s">
-        <v>397</v>
-      </c>
-      <c r="D159" s="26">
+        <v>394</v>
+      </c>
+      <c r="D159" s="25">
         <v>1</v>
       </c>
     </row>
@@ -10510,9 +10595,9 @@
         <v>205</v>
       </c>
       <c r="C160" s="24" t="s">
-        <v>398</v>
-      </c>
-      <c r="D160" s="26">
+        <v>395</v>
+      </c>
+      <c r="D160" s="25">
         <v>1</v>
       </c>
     </row>
@@ -10524,9 +10609,9 @@
         <v>205</v>
       </c>
       <c r="C161" s="24" t="s">
-        <v>399</v>
-      </c>
-      <c r="D161" s="26">
+        <v>396</v>
+      </c>
+      <c r="D161" s="25">
         <v>1</v>
       </c>
     </row>
@@ -10538,9 +10623,9 @@
         <v>205</v>
       </c>
       <c r="C162" s="24" t="s">
-        <v>400</v>
-      </c>
-      <c r="D162" s="26">
+        <v>397</v>
+      </c>
+      <c r="D162" s="25">
         <v>1</v>
       </c>
     </row>
@@ -10552,9 +10637,9 @@
         <v>205</v>
       </c>
       <c r="C163" s="24" t="s">
-        <v>402</v>
-      </c>
-      <c r="D163" s="26">
+        <v>399</v>
+      </c>
+      <c r="D163" s="25">
         <v>1</v>
       </c>
     </row>
@@ -10566,9 +10651,9 @@
         <v>205</v>
       </c>
       <c r="C164" s="24" t="s">
-        <v>403</v>
-      </c>
-      <c r="D164" s="26">
+        <v>400</v>
+      </c>
+      <c r="D164" s="25">
         <v>1</v>
       </c>
     </row>
@@ -10580,9 +10665,9 @@
         <v>205</v>
       </c>
       <c r="C165" s="24" t="s">
-        <v>404</v>
-      </c>
-      <c r="D165" s="26">
+        <v>401</v>
+      </c>
+      <c r="D165" s="25">
         <v>1</v>
       </c>
     </row>
@@ -10594,9 +10679,9 @@
         <v>205</v>
       </c>
       <c r="C166" s="24" t="s">
-        <v>405</v>
-      </c>
-      <c r="D166" s="26">
+        <v>402</v>
+      </c>
+      <c r="D166" s="25">
         <v>1</v>
       </c>
     </row>
@@ -10608,9 +10693,9 @@
         <v>205</v>
       </c>
       <c r="C167" s="24" t="s">
-        <v>406</v>
-      </c>
-      <c r="D167" s="26">
+        <v>403</v>
+      </c>
+      <c r="D167" s="25">
         <v>1</v>
       </c>
     </row>
@@ -10622,9 +10707,9 @@
         <v>205</v>
       </c>
       <c r="C168" s="24" t="s">
-        <v>407</v>
-      </c>
-      <c r="D168" s="26">
+        <v>404</v>
+      </c>
+      <c r="D168" s="25">
         <v>1</v>
       </c>
     </row>
@@ -10636,9 +10721,9 @@
         <v>205</v>
       </c>
       <c r="C169" s="24" t="s">
-        <v>408</v>
-      </c>
-      <c r="D169" s="26">
+        <v>405</v>
+      </c>
+      <c r="D169" s="25">
         <v>1</v>
       </c>
     </row>
@@ -10650,9 +10735,9 @@
         <v>205</v>
       </c>
       <c r="C170" s="24" t="s">
-        <v>409</v>
-      </c>
-      <c r="D170" s="26">
+        <v>406</v>
+      </c>
+      <c r="D170" s="25">
         <v>1</v>
       </c>
     </row>
@@ -10664,9 +10749,9 @@
         <v>205</v>
       </c>
       <c r="C171" s="24" t="s">
-        <v>411</v>
-      </c>
-      <c r="D171" s="26">
+        <v>408</v>
+      </c>
+      <c r="D171" s="25">
         <v>1</v>
       </c>
     </row>
@@ -10678,9 +10763,9 @@
         <v>205</v>
       </c>
       <c r="C172" s="24" t="s">
-        <v>412</v>
-      </c>
-      <c r="D172" s="26">
+        <v>409</v>
+      </c>
+      <c r="D172" s="25">
         <v>1</v>
       </c>
     </row>
@@ -10692,9 +10777,9 @@
         <v>205</v>
       </c>
       <c r="C173" s="24" t="s">
-        <v>413</v>
-      </c>
-      <c r="D173" s="26">
+        <v>410</v>
+      </c>
+      <c r="D173" s="25">
         <v>1</v>
       </c>
     </row>
@@ -10706,9 +10791,9 @@
         <v>205</v>
       </c>
       <c r="C174" s="24" t="s">
-        <v>414</v>
-      </c>
-      <c r="D174" s="26">
+        <v>411</v>
+      </c>
+      <c r="D174" s="25">
         <v>1</v>
       </c>
     </row>
@@ -10720,9 +10805,9 @@
         <v>205</v>
       </c>
       <c r="C175" s="24" t="s">
-        <v>415</v>
-      </c>
-      <c r="D175" s="26">
+        <v>412</v>
+      </c>
+      <c r="D175" s="25">
         <v>1</v>
       </c>
     </row>
@@ -10734,9 +10819,9 @@
         <v>205</v>
       </c>
       <c r="C176" s="24" t="s">
-        <v>416</v>
-      </c>
-      <c r="D176" s="26">
+        <v>413</v>
+      </c>
+      <c r="D176" s="25">
         <v>1</v>
       </c>
     </row>
@@ -10748,9 +10833,9 @@
         <v>205</v>
       </c>
       <c r="C177" s="24" t="s">
-        <v>417</v>
-      </c>
-      <c r="D177" s="26">
+        <v>414</v>
+      </c>
+      <c r="D177" s="25">
         <v>1</v>
       </c>
     </row>
@@ -10762,9 +10847,9 @@
         <v>205</v>
       </c>
       <c r="C178" s="24" t="s">
-        <v>418</v>
-      </c>
-      <c r="D178" s="26">
+        <v>415</v>
+      </c>
+      <c r="D178" s="25">
         <v>1</v>
       </c>
     </row>
@@ -10776,9 +10861,9 @@
         <v>205</v>
       </c>
       <c r="C179" s="24" t="s">
-        <v>419</v>
-      </c>
-      <c r="D179" s="26">
+        <v>416</v>
+      </c>
+      <c r="D179" s="25">
         <v>1</v>
       </c>
     </row>
@@ -10790,9 +10875,9 @@
         <v>205</v>
       </c>
       <c r="C180" s="24" t="s">
-        <v>420</v>
-      </c>
-      <c r="D180" s="26">
+        <v>417</v>
+      </c>
+      <c r="D180" s="25">
         <v>1</v>
       </c>
     </row>
@@ -10804,9 +10889,9 @@
         <v>205</v>
       </c>
       <c r="C181" s="24" t="s">
-        <v>421</v>
-      </c>
-      <c r="D181" s="26">
+        <v>418</v>
+      </c>
+      <c r="D181" s="25">
         <v>1</v>
       </c>
     </row>
@@ -10818,9 +10903,9 @@
         <v>205</v>
       </c>
       <c r="C182" s="24" t="s">
-        <v>422</v>
-      </c>
-      <c r="D182" s="26">
+        <v>419</v>
+      </c>
+      <c r="D182" s="25">
         <v>1</v>
       </c>
     </row>
@@ -10832,9 +10917,9 @@
         <v>205</v>
       </c>
       <c r="C183" s="24" t="s">
-        <v>423</v>
-      </c>
-      <c r="D183" s="26">
+        <v>420</v>
+      </c>
+      <c r="D183" s="25">
         <v>1</v>
       </c>
     </row>
@@ -10846,9 +10931,9 @@
         <v>205</v>
       </c>
       <c r="C184" s="24" t="s">
-        <v>424</v>
-      </c>
-      <c r="D184" s="26">
+        <v>421</v>
+      </c>
+      <c r="D184" s="25">
         <v>1</v>
       </c>
     </row>
@@ -10860,9 +10945,9 @@
         <v>205</v>
       </c>
       <c r="C185" s="24" t="s">
-        <v>425</v>
-      </c>
-      <c r="D185" s="26">
+        <v>422</v>
+      </c>
+      <c r="D185" s="25">
         <v>1</v>
       </c>
     </row>
@@ -10874,9 +10959,9 @@
         <v>205</v>
       </c>
       <c r="C186" s="24" t="s">
-        <v>426</v>
-      </c>
-      <c r="D186" s="26">
+        <v>423</v>
+      </c>
+      <c r="D186" s="25">
         <v>1</v>
       </c>
     </row>
@@ -10888,9 +10973,9 @@
         <v>205</v>
       </c>
       <c r="C187" s="24" t="s">
-        <v>427</v>
-      </c>
-      <c r="D187" s="26">
+        <v>424</v>
+      </c>
+      <c r="D187" s="25">
         <v>1</v>
       </c>
     </row>
@@ -10902,9 +10987,9 @@
         <v>205</v>
       </c>
       <c r="C188" s="24" t="s">
-        <v>428</v>
-      </c>
-      <c r="D188" s="26">
+        <v>425</v>
+      </c>
+      <c r="D188" s="25">
         <v>1</v>
       </c>
     </row>
@@ -10916,9 +11001,9 @@
         <v>205</v>
       </c>
       <c r="C189" s="24" t="s">
-        <v>429</v>
-      </c>
-      <c r="D189" s="26">
+        <v>426</v>
+      </c>
+      <c r="D189" s="25">
         <v>1</v>
       </c>
     </row>
@@ -10930,9 +11015,9 @@
         <v>205</v>
       </c>
       <c r="C190" s="24" t="s">
-        <v>430</v>
-      </c>
-      <c r="D190" s="26">
+        <v>427</v>
+      </c>
+      <c r="D190" s="25">
         <v>1</v>
       </c>
     </row>
@@ -10944,9 +11029,9 @@
         <v>205</v>
       </c>
       <c r="C191" s="24" t="s">
-        <v>431</v>
-      </c>
-      <c r="D191" s="26">
+        <v>428</v>
+      </c>
+      <c r="D191" s="25">
         <v>1</v>
       </c>
     </row>
@@ -10958,9 +11043,9 @@
         <v>205</v>
       </c>
       <c r="C192" s="24" t="s">
-        <v>432</v>
-      </c>
-      <c r="D192" s="26">
+        <v>429</v>
+      </c>
+      <c r="D192" s="25">
         <v>1</v>
       </c>
     </row>
@@ -10972,9 +11057,9 @@
         <v>205</v>
       </c>
       <c r="C193" s="24" t="s">
-        <v>433</v>
-      </c>
-      <c r="D193" s="26">
+        <v>430</v>
+      </c>
+      <c r="D193" s="25">
         <v>1</v>
       </c>
     </row>
@@ -10986,9 +11071,9 @@
         <v>205</v>
       </c>
       <c r="C194" s="24" t="s">
-        <v>434</v>
-      </c>
-      <c r="D194" s="26">
+        <v>431</v>
+      </c>
+      <c r="D194" s="25">
         <v>1</v>
       </c>
     </row>
@@ -11000,9 +11085,9 @@
         <v>205</v>
       </c>
       <c r="C195" s="24" t="s">
-        <v>435</v>
-      </c>
-      <c r="D195" s="26">
+        <v>432</v>
+      </c>
+      <c r="D195" s="25">
         <v>1</v>
       </c>
     </row>
@@ -11014,9 +11099,9 @@
         <v>205</v>
       </c>
       <c r="C196" s="24" t="s">
-        <v>436</v>
-      </c>
-      <c r="D196" s="26">
+        <v>433</v>
+      </c>
+      <c r="D196" s="25">
         <v>1</v>
       </c>
     </row>
@@ -11028,9 +11113,9 @@
         <v>205</v>
       </c>
       <c r="C197" s="24" t="s">
-        <v>437</v>
-      </c>
-      <c r="D197" s="26">
+        <v>434</v>
+      </c>
+      <c r="D197" s="25">
         <v>1</v>
       </c>
     </row>
@@ -11042,9 +11127,9 @@
         <v>205</v>
       </c>
       <c r="C198" s="24" t="s">
-        <v>438</v>
-      </c>
-      <c r="D198" s="26">
+        <v>435</v>
+      </c>
+      <c r="D198" s="25">
         <v>1</v>
       </c>
     </row>
@@ -11056,9 +11141,9 @@
         <v>205</v>
       </c>
       <c r="C199" s="24" t="s">
-        <v>439</v>
-      </c>
-      <c r="D199" s="26">
+        <v>436</v>
+      </c>
+      <c r="D199" s="25">
         <v>1</v>
       </c>
     </row>
@@ -11070,9 +11155,9 @@
         <v>205</v>
       </c>
       <c r="C200" s="24" t="s">
-        <v>440</v>
-      </c>
-      <c r="D200" s="26">
+        <v>437</v>
+      </c>
+      <c r="D200" s="25">
         <v>1</v>
       </c>
     </row>
@@ -11084,9 +11169,9 @@
         <v>205</v>
       </c>
       <c r="C201" s="24" t="s">
-        <v>441</v>
-      </c>
-      <c r="D201" s="26">
+        <v>438</v>
+      </c>
+      <c r="D201" s="25">
         <v>1</v>
       </c>
     </row>
@@ -11098,9 +11183,9 @@
         <v>205</v>
       </c>
       <c r="C202" s="24" t="s">
-        <v>442</v>
-      </c>
-      <c r="D202" s="26">
+        <v>439</v>
+      </c>
+      <c r="D202" s="25">
         <v>1</v>
       </c>
     </row>
@@ -11112,9 +11197,9 @@
         <v>205</v>
       </c>
       <c r="C203" s="24" t="s">
-        <v>443</v>
-      </c>
-      <c r="D203" s="26">
+        <v>440</v>
+      </c>
+      <c r="D203" s="25">
         <v>1</v>
       </c>
     </row>
@@ -11126,9 +11211,9 @@
         <v>205</v>
       </c>
       <c r="C204" s="24" t="s">
-        <v>444</v>
-      </c>
-      <c r="D204" s="26">
+        <v>441</v>
+      </c>
+      <c r="D204" s="25">
         <v>1</v>
       </c>
     </row>
@@ -11140,9 +11225,9 @@
         <v>205</v>
       </c>
       <c r="C205" s="24" t="s">
-        <v>445</v>
-      </c>
-      <c r="D205" s="26">
+        <v>442</v>
+      </c>
+      <c r="D205" s="25">
         <v>1</v>
       </c>
     </row>
@@ -11154,9 +11239,9 @@
         <v>205</v>
       </c>
       <c r="C206" s="24" t="s">
-        <v>446</v>
-      </c>
-      <c r="D206" s="26">
+        <v>443</v>
+      </c>
+      <c r="D206" s="25">
         <v>1</v>
       </c>
     </row>
@@ -11168,9 +11253,9 @@
         <v>205</v>
       </c>
       <c r="C207" s="24" t="s">
-        <v>447</v>
-      </c>
-      <c r="D207" s="26">
+        <v>444</v>
+      </c>
+      <c r="D207" s="25">
         <v>1</v>
       </c>
     </row>
@@ -11182,9 +11267,9 @@
         <v>205</v>
       </c>
       <c r="C208" s="24" t="s">
-        <v>448</v>
-      </c>
-      <c r="D208" s="26">
+        <v>445</v>
+      </c>
+      <c r="D208" s="25">
         <v>1</v>
       </c>
     </row>
@@ -11196,9 +11281,9 @@
         <v>205</v>
       </c>
       <c r="C209" s="24" t="s">
-        <v>449</v>
-      </c>
-      <c r="D209" s="26">
+        <v>446</v>
+      </c>
+      <c r="D209" s="25">
         <v>1</v>
       </c>
     </row>
@@ -11210,9 +11295,9 @@
         <v>205</v>
       </c>
       <c r="C210" s="24" t="s">
-        <v>450</v>
-      </c>
-      <c r="D210" s="26">
+        <v>447</v>
+      </c>
+      <c r="D210" s="25">
         <v>1</v>
       </c>
     </row>
@@ -11224,9 +11309,9 @@
         <v>205</v>
       </c>
       <c r="C211" s="24" t="s">
-        <v>451</v>
-      </c>
-      <c r="D211" s="26">
+        <v>448</v>
+      </c>
+      <c r="D211" s="25">
         <v>1</v>
       </c>
     </row>
@@ -11238,9 +11323,9 @@
         <v>205</v>
       </c>
       <c r="C212" s="24" t="s">
-        <v>452</v>
-      </c>
-      <c r="D212" s="26">
+        <v>449</v>
+      </c>
+      <c r="D212" s="25">
         <v>1</v>
       </c>
     </row>
@@ -11252,9 +11337,9 @@
         <v>205</v>
       </c>
       <c r="C213" s="24" t="s">
-        <v>453</v>
-      </c>
-      <c r="D213" s="26">
+        <v>450</v>
+      </c>
+      <c r="D213" s="25">
         <v>1</v>
       </c>
     </row>
@@ -11266,9 +11351,9 @@
         <v>205</v>
       </c>
       <c r="C214" s="24" t="s">
-        <v>454</v>
-      </c>
-      <c r="D214" s="26">
+        <v>451</v>
+      </c>
+      <c r="D214" s="25">
         <v>1</v>
       </c>
     </row>
@@ -11280,9 +11365,9 @@
         <v>205</v>
       </c>
       <c r="C215" s="24" t="s">
-        <v>455</v>
-      </c>
-      <c r="D215" s="26">
+        <v>452</v>
+      </c>
+      <c r="D215" s="25">
         <v>1</v>
       </c>
     </row>
@@ -11294,9 +11379,9 @@
         <v>205</v>
       </c>
       <c r="C216" s="24" t="s">
-        <v>456</v>
-      </c>
-      <c r="D216" s="26">
+        <v>453</v>
+      </c>
+      <c r="D216" s="25">
         <v>1</v>
       </c>
     </row>
@@ -11308,9 +11393,9 @@
         <v>205</v>
       </c>
       <c r="C217" s="24" t="s">
-        <v>457</v>
-      </c>
-      <c r="D217" s="26">
+        <v>454</v>
+      </c>
+      <c r="D217" s="25">
         <v>1</v>
       </c>
     </row>
@@ -11322,9 +11407,9 @@
         <v>205</v>
       </c>
       <c r="C218" s="24" t="s">
-        <v>458</v>
-      </c>
-      <c r="D218" s="26">
+        <v>455</v>
+      </c>
+      <c r="D218" s="25">
         <v>1</v>
       </c>
     </row>
@@ -11336,9 +11421,9 @@
         <v>205</v>
       </c>
       <c r="C219" s="24" t="s">
-        <v>459</v>
-      </c>
-      <c r="D219" s="26">
+        <v>456</v>
+      </c>
+      <c r="D219" s="25">
         <v>1</v>
       </c>
     </row>
@@ -11350,9 +11435,9 @@
         <v>205</v>
       </c>
       <c r="C220" s="24" t="s">
-        <v>460</v>
-      </c>
-      <c r="D220" s="26">
+        <v>457</v>
+      </c>
+      <c r="D220" s="25">
         <v>1</v>
       </c>
     </row>
@@ -11364,9 +11449,9 @@
         <v>205</v>
       </c>
       <c r="C221" s="24" t="s">
-        <v>461</v>
-      </c>
-      <c r="D221" s="26">
+        <v>458</v>
+      </c>
+      <c r="D221" s="25">
         <v>1</v>
       </c>
     </row>
@@ -11378,9 +11463,9 @@
         <v>205</v>
       </c>
       <c r="C222" s="24" t="s">
-        <v>462</v>
-      </c>
-      <c r="D222" s="26">
+        <v>459</v>
+      </c>
+      <c r="D222" s="25">
         <v>1</v>
       </c>
     </row>
@@ -11392,9 +11477,9 @@
         <v>205</v>
       </c>
       <c r="C223" s="24" t="s">
-        <v>463</v>
-      </c>
-      <c r="D223" s="26">
+        <v>460</v>
+      </c>
+      <c r="D223" s="25">
         <v>1</v>
       </c>
     </row>
@@ -11406,9 +11491,9 @@
         <v>205</v>
       </c>
       <c r="C224" s="24" t="s">
-        <v>464</v>
-      </c>
-      <c r="D224" s="26">
+        <v>461</v>
+      </c>
+      <c r="D224" s="25">
         <v>1</v>
       </c>
     </row>
@@ -11420,9 +11505,9 @@
         <v>205</v>
       </c>
       <c r="C225" s="24" t="s">
-        <v>465</v>
-      </c>
-      <c r="D225" s="26">
+        <v>462</v>
+      </c>
+      <c r="D225" s="25">
         <v>1</v>
       </c>
     </row>
@@ -11434,9 +11519,9 @@
         <v>205</v>
       </c>
       <c r="C226" s="24" t="s">
-        <v>466</v>
-      </c>
-      <c r="D226" s="26">
+        <v>463</v>
+      </c>
+      <c r="D226" s="25">
         <v>1</v>
       </c>
     </row>
@@ -11448,9 +11533,9 @@
         <v>205</v>
       </c>
       <c r="C227" s="24" t="s">
-        <v>467</v>
-      </c>
-      <c r="D227" s="26">
+        <v>464</v>
+      </c>
+      <c r="D227" s="25">
         <v>1</v>
       </c>
     </row>
@@ -11462,9 +11547,9 @@
         <v>205</v>
       </c>
       <c r="C228" s="24" t="s">
-        <v>468</v>
-      </c>
-      <c r="D228" s="26">
+        <v>465</v>
+      </c>
+      <c r="D228" s="25">
         <v>1</v>
       </c>
     </row>
@@ -11476,9 +11561,9 @@
         <v>205</v>
       </c>
       <c r="C229" s="24" t="s">
-        <v>469</v>
-      </c>
-      <c r="D229" s="26">
+        <v>466</v>
+      </c>
+      <c r="D229" s="25">
         <v>1</v>
       </c>
     </row>
@@ -11490,9 +11575,9 @@
         <v>205</v>
       </c>
       <c r="C230" s="24" t="s">
-        <v>470</v>
-      </c>
-      <c r="D230" s="26">
+        <v>467</v>
+      </c>
+      <c r="D230" s="25">
         <v>1</v>
       </c>
     </row>
@@ -11504,9 +11589,9 @@
         <v>205</v>
       </c>
       <c r="C231" s="24" t="s">
-        <v>471</v>
-      </c>
-      <c r="D231" s="26">
+        <v>468</v>
+      </c>
+      <c r="D231" s="25">
         <v>1</v>
       </c>
     </row>
@@ -11518,9 +11603,9 @@
         <v>205</v>
       </c>
       <c r="C232" s="24" t="s">
-        <v>472</v>
-      </c>
-      <c r="D232" s="26">
+        <v>469</v>
+      </c>
+      <c r="D232" s="25">
         <v>1</v>
       </c>
     </row>
@@ -11532,9 +11617,9 @@
         <v>205</v>
       </c>
       <c r="C233" s="24" t="s">
-        <v>473</v>
-      </c>
-      <c r="D233" s="26">
+        <v>470</v>
+      </c>
+      <c r="D233" s="25">
         <v>1</v>
       </c>
     </row>
@@ -11546,9 +11631,9 @@
         <v>205</v>
       </c>
       <c r="C234" s="24" t="s">
-        <v>474</v>
-      </c>
-      <c r="D234" s="26">
+        <v>471</v>
+      </c>
+      <c r="D234" s="25">
         <v>1</v>
       </c>
     </row>
@@ -11560,9 +11645,9 @@
         <v>205</v>
       </c>
       <c r="C235" s="24" t="s">
-        <v>475</v>
-      </c>
-      <c r="D235" s="26">
+        <v>472</v>
+      </c>
+      <c r="D235" s="25">
         <v>1</v>
       </c>
     </row>
@@ -11574,9 +11659,9 @@
         <v>205</v>
       </c>
       <c r="C236" s="24" t="s">
-        <v>476</v>
-      </c>
-      <c r="D236" s="26">
+        <v>473</v>
+      </c>
+      <c r="D236" s="25">
         <v>1</v>
       </c>
     </row>
@@ -11588,9 +11673,9 @@
         <v>205</v>
       </c>
       <c r="C237" s="24" t="s">
-        <v>477</v>
-      </c>
-      <c r="D237" s="26">
+        <v>474</v>
+      </c>
+      <c r="D237" s="25">
         <v>1</v>
       </c>
     </row>
@@ -11602,9 +11687,9 @@
         <v>205</v>
       </c>
       <c r="C238" s="24" t="s">
-        <v>478</v>
-      </c>
-      <c r="D238" s="26">
+        <v>475</v>
+      </c>
+      <c r="D238" s="25">
         <v>1</v>
       </c>
     </row>
@@ -11616,9 +11701,9 @@
         <v>205</v>
       </c>
       <c r="C239" s="24" t="s">
-        <v>479</v>
-      </c>
-      <c r="D239" s="26">
+        <v>476</v>
+      </c>
+      <c r="D239" s="25">
         <v>1</v>
       </c>
     </row>
@@ -11630,9 +11715,9 @@
         <v>205</v>
       </c>
       <c r="C240" s="24" t="s">
-        <v>480</v>
-      </c>
-      <c r="D240" s="26">
+        <v>477</v>
+      </c>
+      <c r="D240" s="25">
         <v>1</v>
       </c>
     </row>
@@ -11644,9 +11729,9 @@
         <v>205</v>
       </c>
       <c r="C241" s="24" t="s">
-        <v>481</v>
-      </c>
-      <c r="D241" s="26">
+        <v>478</v>
+      </c>
+      <c r="D241" s="25">
         <v>1</v>
       </c>
     </row>
@@ -11658,9 +11743,9 @@
         <v>205</v>
       </c>
       <c r="C242" s="24" t="s">
-        <v>482</v>
-      </c>
-      <c r="D242" s="26">
+        <v>479</v>
+      </c>
+      <c r="D242" s="25">
         <v>1</v>
       </c>
     </row>
@@ -11672,9 +11757,9 @@
         <v>205</v>
       </c>
       <c r="C243" s="24" t="s">
-        <v>483</v>
-      </c>
-      <c r="D243" s="26">
+        <v>480</v>
+      </c>
+      <c r="D243" s="25">
         <v>1</v>
       </c>
     </row>
@@ -11686,9 +11771,9 @@
         <v>205</v>
       </c>
       <c r="C244" s="24" t="s">
-        <v>484</v>
-      </c>
-      <c r="D244" s="26">
+        <v>481</v>
+      </c>
+      <c r="D244" s="25">
         <v>1</v>
       </c>
     </row>
@@ -11700,9 +11785,9 @@
         <v>205</v>
       </c>
       <c r="C245" s="24" t="s">
-        <v>485</v>
-      </c>
-      <c r="D245" s="26">
+        <v>482</v>
+      </c>
+      <c r="D245" s="25">
         <v>1</v>
       </c>
     </row>
@@ -11714,9 +11799,9 @@
         <v>205</v>
       </c>
       <c r="C246" s="24" t="s">
-        <v>486</v>
-      </c>
-      <c r="D246" s="26">
+        <v>483</v>
+      </c>
+      <c r="D246" s="25">
         <v>1</v>
       </c>
     </row>
@@ -11728,9 +11813,9 @@
         <v>205</v>
       </c>
       <c r="C247" s="24" t="s">
-        <v>487</v>
-      </c>
-      <c r="D247" s="26">
+        <v>484</v>
+      </c>
+      <c r="D247" s="25">
         <v>1</v>
       </c>
     </row>
@@ -11742,9 +11827,9 @@
         <v>205</v>
       </c>
       <c r="C248" s="24" t="s">
-        <v>488</v>
-      </c>
-      <c r="D248" s="26">
+        <v>485</v>
+      </c>
+      <c r="D248" s="25">
         <v>1</v>
       </c>
     </row>
@@ -11756,9 +11841,9 @@
         <v>205</v>
       </c>
       <c r="C249" s="24" t="s">
-        <v>489</v>
-      </c>
-      <c r="D249" s="26">
+        <v>486</v>
+      </c>
+      <c r="D249" s="25">
         <v>1</v>
       </c>
     </row>
@@ -11770,9 +11855,9 @@
         <v>205</v>
       </c>
       <c r="C250" s="24" t="s">
-        <v>490</v>
-      </c>
-      <c r="D250" s="26">
+        <v>487</v>
+      </c>
+      <c r="D250" s="25">
         <v>1</v>
       </c>
     </row>
@@ -11784,9 +11869,9 @@
         <v>205</v>
       </c>
       <c r="C251" s="24" t="s">
-        <v>491</v>
-      </c>
-      <c r="D251" s="26">
+        <v>488</v>
+      </c>
+      <c r="D251" s="25">
         <v>1</v>
       </c>
     </row>
@@ -11798,9 +11883,9 @@
         <v>205</v>
       </c>
       <c r="C252" s="24" t="s">
-        <v>492</v>
-      </c>
-      <c r="D252" s="26">
+        <v>489</v>
+      </c>
+      <c r="D252" s="25">
         <v>1</v>
       </c>
     </row>
@@ -11812,9 +11897,9 @@
         <v>205</v>
       </c>
       <c r="C253" s="24" t="s">
-        <v>493</v>
-      </c>
-      <c r="D253" s="26">
+        <v>490</v>
+      </c>
+      <c r="D253" s="25">
         <v>1</v>
       </c>
     </row>
@@ -11826,9 +11911,9 @@
         <v>205</v>
       </c>
       <c r="C254" s="24" t="s">
-        <v>494</v>
-      </c>
-      <c r="D254" s="26">
+        <v>491</v>
+      </c>
+      <c r="D254" s="25">
         <v>1</v>
       </c>
     </row>
@@ -11840,9 +11925,9 @@
         <v>205</v>
       </c>
       <c r="C255" s="24" t="s">
-        <v>495</v>
-      </c>
-      <c r="D255" s="26">
+        <v>492</v>
+      </c>
+      <c r="D255" s="25">
         <v>1</v>
       </c>
     </row>
@@ -11854,9 +11939,9 @@
         <v>205</v>
       </c>
       <c r="C256" s="24" t="s">
-        <v>496</v>
-      </c>
-      <c r="D256" s="26">
+        <v>493</v>
+      </c>
+      <c r="D256" s="25">
         <v>1</v>
       </c>
     </row>
@@ -11868,9 +11953,9 @@
         <v>205</v>
       </c>
       <c r="C257" s="24" t="s">
-        <v>497</v>
-      </c>
-      <c r="D257" s="26">
+        <v>494</v>
+      </c>
+      <c r="D257" s="25">
         <v>1</v>
       </c>
     </row>
@@ -11882,9 +11967,9 @@
         <v>205</v>
       </c>
       <c r="C258" s="24" t="s">
-        <v>498</v>
-      </c>
-      <c r="D258" s="26">
+        <v>495</v>
+      </c>
+      <c r="D258" s="25">
         <v>1</v>
       </c>
     </row>
@@ -11896,9 +11981,9 @@
         <v>205</v>
       </c>
       <c r="C259" s="24" t="s">
-        <v>499</v>
-      </c>
-      <c r="D259" s="26">
+        <v>496</v>
+      </c>
+      <c r="D259" s="25">
         <v>1</v>
       </c>
     </row>
@@ -11910,9 +11995,9 @@
         <v>205</v>
       </c>
       <c r="C260" s="24" t="s">
-        <v>500</v>
-      </c>
-      <c r="D260" s="26">
+        <v>497</v>
+      </c>
+      <c r="D260" s="25">
         <v>1</v>
       </c>
     </row>
@@ -11924,9 +12009,9 @@
         <v>205</v>
       </c>
       <c r="C261" s="24" t="s">
-        <v>501</v>
-      </c>
-      <c r="D261" s="26">
+        <v>498</v>
+      </c>
+      <c r="D261" s="25">
         <v>1</v>
       </c>
     </row>
@@ -11938,9 +12023,9 @@
         <v>205</v>
       </c>
       <c r="C262" s="24" t="s">
-        <v>502</v>
-      </c>
-      <c r="D262" s="26">
+        <v>499</v>
+      </c>
+      <c r="D262" s="25">
         <v>1</v>
       </c>
     </row>
@@ -11952,9 +12037,9 @@
         <v>205</v>
       </c>
       <c r="C263" s="24" t="s">
-        <v>503</v>
-      </c>
-      <c r="D263" s="26">
+        <v>500</v>
+      </c>
+      <c r="D263" s="25">
         <v>1</v>
       </c>
     </row>
@@ -11966,9 +12051,9 @@
         <v>205</v>
       </c>
       <c r="C264" s="24" t="s">
-        <v>504</v>
-      </c>
-      <c r="D264" s="26">
+        <v>501</v>
+      </c>
+      <c r="D264" s="25">
         <v>1</v>
       </c>
     </row>
@@ -11980,9 +12065,9 @@
         <v>205</v>
       </c>
       <c r="C265" s="24" t="s">
-        <v>505</v>
-      </c>
-      <c r="D265" s="26">
+        <v>502</v>
+      </c>
+      <c r="D265" s="25">
         <v>1</v>
       </c>
     </row>
@@ -11994,9 +12079,9 @@
         <v>205</v>
       </c>
       <c r="C266" s="24" t="s">
-        <v>506</v>
-      </c>
-      <c r="D266" s="26">
+        <v>503</v>
+      </c>
+      <c r="D266" s="25">
         <v>1</v>
       </c>
     </row>
@@ -12008,9 +12093,9 @@
         <v>205</v>
       </c>
       <c r="C267" s="24" t="s">
-        <v>507</v>
-      </c>
-      <c r="D267" s="26">
+        <v>504</v>
+      </c>
+      <c r="D267" s="25">
         <v>1</v>
       </c>
     </row>
@@ -12022,9 +12107,9 @@
         <v>205</v>
       </c>
       <c r="C268" s="24" t="s">
-        <v>508</v>
-      </c>
-      <c r="D268" s="26">
+        <v>505</v>
+      </c>
+      <c r="D268" s="25">
         <v>1</v>
       </c>
     </row>
@@ -12036,9 +12121,9 @@
         <v>205</v>
       </c>
       <c r="C269" s="24" t="s">
-        <v>509</v>
-      </c>
-      <c r="D269" s="26">
+        <v>506</v>
+      </c>
+      <c r="D269" s="25">
         <v>1</v>
       </c>
     </row>
@@ -12050,9 +12135,9 @@
         <v>205</v>
       </c>
       <c r="C270" s="24" t="s">
-        <v>510</v>
-      </c>
-      <c r="D270" s="26">
+        <v>507</v>
+      </c>
+      <c r="D270" s="25">
         <v>1</v>
       </c>
     </row>
@@ -12064,9 +12149,9 @@
         <v>205</v>
       </c>
       <c r="C271" s="24" t="s">
-        <v>511</v>
-      </c>
-      <c r="D271" s="26">
+        <v>508</v>
+      </c>
+      <c r="D271" s="25">
         <v>1</v>
       </c>
     </row>
@@ -12078,9 +12163,9 @@
         <v>205</v>
       </c>
       <c r="C272" s="24" t="s">
-        <v>512</v>
-      </c>
-      <c r="D272" s="26">
+        <v>509</v>
+      </c>
+      <c r="D272" s="25">
         <v>1</v>
       </c>
     </row>
@@ -12092,9 +12177,9 @@
         <v>205</v>
       </c>
       <c r="C273" s="24" t="s">
-        <v>513</v>
-      </c>
-      <c r="D273" s="26">
+        <v>510</v>
+      </c>
+      <c r="D273" s="25">
         <v>1</v>
       </c>
     </row>
@@ -12106,9 +12191,9 @@
         <v>205</v>
       </c>
       <c r="C274" s="24" t="s">
-        <v>514</v>
-      </c>
-      <c r="D274" s="26">
+        <v>511</v>
+      </c>
+      <c r="D274" s="25">
         <v>1</v>
       </c>
     </row>
@@ -12120,9 +12205,9 @@
         <v>205</v>
       </c>
       <c r="C275" s="24" t="s">
-        <v>515</v>
-      </c>
-      <c r="D275" s="26">
+        <v>512</v>
+      </c>
+      <c r="D275" s="25">
         <v>1</v>
       </c>
     </row>
@@ -12134,9 +12219,9 @@
         <v>205</v>
       </c>
       <c r="C276" s="24" t="s">
-        <v>516</v>
-      </c>
-      <c r="D276" s="26">
+        <v>513</v>
+      </c>
+      <c r="D276" s="25">
         <v>1</v>
       </c>
     </row>
@@ -12148,9 +12233,9 @@
         <v>205</v>
       </c>
       <c r="C277" s="24" t="s">
-        <v>517</v>
-      </c>
-      <c r="D277" s="26">
+        <v>514</v>
+      </c>
+      <c r="D277" s="25">
         <v>1</v>
       </c>
     </row>
@@ -12162,9 +12247,9 @@
         <v>205</v>
       </c>
       <c r="C278" s="24" t="s">
-        <v>518</v>
-      </c>
-      <c r="D278" s="26">
+        <v>515</v>
+      </c>
+      <c r="D278" s="25">
         <v>1</v>
       </c>
     </row>
@@ -12176,9 +12261,9 @@
         <v>205</v>
       </c>
       <c r="C279" s="24" t="s">
-        <v>519</v>
-      </c>
-      <c r="D279" s="26">
+        <v>516</v>
+      </c>
+      <c r="D279" s="25">
         <v>1</v>
       </c>
     </row>
@@ -12190,9 +12275,9 @@
         <v>205</v>
       </c>
       <c r="C280" s="24" t="s">
-        <v>520</v>
-      </c>
-      <c r="D280" s="26">
+        <v>517</v>
+      </c>
+      <c r="D280" s="25">
         <v>1</v>
       </c>
     </row>
@@ -12204,9 +12289,9 @@
         <v>205</v>
       </c>
       <c r="C281" s="24" t="s">
-        <v>521</v>
-      </c>
-      <c r="D281" s="26">
+        <v>518</v>
+      </c>
+      <c r="D281" s="25">
         <v>1</v>
       </c>
     </row>
@@ -12218,9 +12303,9 @@
         <v>205</v>
       </c>
       <c r="C282" s="24" t="s">
-        <v>522</v>
-      </c>
-      <c r="D282" s="26">
+        <v>519</v>
+      </c>
+      <c r="D282" s="25">
         <v>1</v>
       </c>
     </row>
@@ -12232,9 +12317,9 @@
         <v>205</v>
       </c>
       <c r="C283" s="24" t="s">
-        <v>523</v>
-      </c>
-      <c r="D283" s="26">
+        <v>520</v>
+      </c>
+      <c r="D283" s="25">
         <v>1</v>
       </c>
     </row>
@@ -12246,9 +12331,9 @@
         <v>205</v>
       </c>
       <c r="C284" s="24" t="s">
-        <v>524</v>
-      </c>
-      <c r="D284" s="26">
+        <v>521</v>
+      </c>
+      <c r="D284" s="25">
         <v>1</v>
       </c>
     </row>
@@ -12260,9 +12345,9 @@
         <v>205</v>
       </c>
       <c r="C285" s="24" t="s">
-        <v>525</v>
-      </c>
-      <c r="D285" s="26">
+        <v>522</v>
+      </c>
+      <c r="D285" s="25">
         <v>1</v>
       </c>
     </row>
@@ -12274,9 +12359,9 @@
         <v>205</v>
       </c>
       <c r="C286" s="24" t="s">
-        <v>526</v>
-      </c>
-      <c r="D286" s="26">
+        <v>523</v>
+      </c>
+      <c r="D286" s="25">
         <v>1</v>
       </c>
     </row>
@@ -12288,9 +12373,9 @@
         <v>205</v>
       </c>
       <c r="C287" s="24" t="s">
-        <v>527</v>
-      </c>
-      <c r="D287" s="26">
+        <v>524</v>
+      </c>
+      <c r="D287" s="25">
         <v>1</v>
       </c>
     </row>
@@ -12302,9 +12387,9 @@
         <v>205</v>
       </c>
       <c r="C288" s="24" t="s">
-        <v>528</v>
-      </c>
-      <c r="D288" s="26">
+        <v>525</v>
+      </c>
+      <c r="D288" s="25">
         <v>1</v>
       </c>
     </row>
@@ -12316,9 +12401,9 @@
         <v>205</v>
       </c>
       <c r="C289" s="24" t="s">
-        <v>529</v>
-      </c>
-      <c r="D289" s="26">
+        <v>526</v>
+      </c>
+      <c r="D289" s="25">
         <v>1</v>
       </c>
     </row>
@@ -12330,9 +12415,9 @@
         <v>205</v>
       </c>
       <c r="C290" s="24" t="s">
-        <v>530</v>
-      </c>
-      <c r="D290" s="26">
+        <v>527</v>
+      </c>
+      <c r="D290" s="25">
         <v>1</v>
       </c>
     </row>
@@ -12344,9 +12429,9 @@
         <v>205</v>
       </c>
       <c r="C291" s="24" t="s">
-        <v>531</v>
-      </c>
-      <c r="D291" s="26">
+        <v>528</v>
+      </c>
+      <c r="D291" s="25">
         <v>1</v>
       </c>
     </row>
@@ -12358,9 +12443,9 @@
         <v>205</v>
       </c>
       <c r="C292" s="24" t="s">
-        <v>532</v>
-      </c>
-      <c r="D292" s="26">
+        <v>529</v>
+      </c>
+      <c r="D292" s="25">
         <v>1</v>
       </c>
     </row>
@@ -12372,9 +12457,9 @@
         <v>205</v>
       </c>
       <c r="C293" s="24" t="s">
-        <v>533</v>
-      </c>
-      <c r="D293" s="26">
+        <v>530</v>
+      </c>
+      <c r="D293" s="25">
         <v>1</v>
       </c>
     </row>
@@ -12386,9 +12471,9 @@
         <v>205</v>
       </c>
       <c r="C294" s="24" t="s">
-        <v>534</v>
-      </c>
-      <c r="D294" s="26">
+        <v>531</v>
+      </c>
+      <c r="D294" s="25">
         <v>1</v>
       </c>
     </row>
@@ -12400,9 +12485,9 @@
         <v>205</v>
       </c>
       <c r="C295" s="24" t="s">
-        <v>535</v>
-      </c>
-      <c r="D295" s="26">
+        <v>532</v>
+      </c>
+      <c r="D295" s="25">
         <v>1</v>
       </c>
     </row>
@@ -12414,9 +12499,9 @@
         <v>205</v>
       </c>
       <c r="C296" s="24" t="s">
-        <v>536</v>
-      </c>
-      <c r="D296" s="26">
+        <v>533</v>
+      </c>
+      <c r="D296" s="25">
         <v>1</v>
       </c>
     </row>
@@ -12442,7 +12527,7 @@
         <v>241</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="D298" s="1">
         <v>1</v>
@@ -12453,7 +12538,7 @@
         <v>205</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
     </row>
   </sheetData>
@@ -12469,7 +12554,9 @@
   </sheetPr>
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -12479,7 +12566,7 @@
     <col min="6" max="6" width="36.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
@@ -12502,408 +12589,456 @@
         <v>314</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="25"/>
+      <c r="C2" s="27"/>
       <c r="D2" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="25" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="25" t="s">
+        <v>539</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>540</v>
+      </c>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="25"/>
+      <c r="C3" s="27"/>
       <c r="D3" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="25" t="s">
+      <c r="F3" s="28" t="s">
+        <v>541</v>
+      </c>
+      <c r="G3" s="29"/>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27" t="s">
+        <v>542</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>543</v>
+      </c>
+      <c r="F4" s="29" t="s">
+        <v>544</v>
+      </c>
+      <c r="G4" s="28"/>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B5" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="E4" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="C5" s="27"/>
+      <c r="D5" s="27" t="s">
+        <v>545</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>546</v>
+      </c>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27" t="s">
+        <v>331</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="25" t="s">
+      <c r="E7" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="E5" s="25" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="25"/>
-      <c r="D6" s="27" t="s">
-        <v>334</v>
-      </c>
-      <c r="E6" s="25" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="29" t="s">
-        <v>335</v>
-      </c>
-      <c r="E7" s="28" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="25"/>
+      <c r="C8" s="27"/>
       <c r="D8" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="E8" s="25" t="s">
+      <c r="E8" s="27" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="25" t="s">
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="25"/>
+      <c r="C9" s="27"/>
       <c r="D9" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="E9" s="25" t="s">
+      <c r="E9" s="27" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="25" t="s">
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B11" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="25" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="25" t="s">
+      <c r="C11" s="27"/>
+      <c r="D11" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B12" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="25" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="25" t="s">
+      <c r="C12" s="27"/>
+      <c r="D12" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="E12" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B13" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="E12" s="25" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="25" t="s">
+      <c r="C13" s="27"/>
+      <c r="D13" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="E13" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B14" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25" t="s">
-        <v>129</v>
-      </c>
-      <c r="E13" s="25" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="C14" s="25"/>
+      <c r="C14" s="27"/>
       <c r="D14" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="E14" s="25" t="s">
+      <c r="E14" s="27" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="25" t="s">
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="C15" s="25"/>
+      <c r="C15" s="27"/>
       <c r="D15" s="27" t="s">
         <v>148</v>
       </c>
-      <c r="E15" s="25" t="s">
+      <c r="E15" s="27" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" s="25" t="s">
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="C16" s="25"/>
+      <c r="C16" s="27"/>
       <c r="D16" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="E16" s="25" t="s">
+      <c r="E16" s="27" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="25" t="s">
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="E17" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="25" t="s">
+      <c r="B18" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="E17" s="25" t="s">
+      <c r="C18" s="27"/>
+      <c r="D18" s="27" t="s">
+        <v>354</v>
+      </c>
+      <c r="E18" s="27" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="25" t="s">
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="25" t="s">
+      <c r="B19" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="C18" s="25"/>
-      <c r="D18" s="27" t="s">
-        <v>357</v>
-      </c>
-      <c r="E18" s="25" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="25" t="s">
+      <c r="C19" s="27"/>
+      <c r="D19" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="25" t="s">
+      <c r="B20" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19" s="25" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="B20" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="C20" s="25"/>
+      <c r="C20" s="27"/>
       <c r="D20" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="E20" s="25" t="s">
+      <c r="E20" s="27" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="25" t="s">
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="E21" s="27" t="s">
+        <v>547</v>
+      </c>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="B21" s="25" t="s">
+      <c r="B22" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="E21" s="25" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="25" t="s">
+      <c r="C22" s="27"/>
+      <c r="D22" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="E22" s="27" t="s">
+        <v>548</v>
+      </c>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="B22" s="25" t="s">
+      <c r="B23" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25" t="s">
-        <v>145</v>
-      </c>
-      <c r="E22" s="25" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="B23" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="C23" s="25"/>
+      <c r="C23" s="27"/>
       <c r="D23" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="E23" s="25" t="s">
+      <c r="E23" s="27" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="B24" s="25" t="s">
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="C24" s="25"/>
+      <c r="C24" s="27"/>
       <c r="D24" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="E24" s="25" t="s">
+      <c r="E24" s="27" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="B25" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" s="27" t="s">
         <v>174</v>
       </c>
-      <c r="C25" s="25"/>
+      <c r="C25" s="27"/>
       <c r="D25" s="27" t="s">
         <v>188</v>
       </c>
-      <c r="E25" s="25" t="s">
+      <c r="E25" s="27" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="B26" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" s="27" t="s">
         <v>174</v>
       </c>
-      <c r="C26" s="25"/>
+      <c r="C26" s="27"/>
       <c r="D26" s="27" t="s">
         <v>191</v>
       </c>
-      <c r="E26" s="25" t="s">
+      <c r="E26" s="27" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+    </row>
+    <row r="27" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="B27" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" s="27" t="s">
         <v>174</v>
       </c>
-      <c r="C27" s="25"/>
+      <c r="C27" s="27"/>
       <c r="D27" s="27" t="s">
         <v>194</v>
       </c>
-      <c r="E27" s="25" t="s">
+      <c r="E27" s="27" t="s">
         <v>182</v>
       </c>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:E27" xr:uid="{00000000-0009-0000-0000-000005000000}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -12914,14 +13049,16 @@
   </sheetPr>
   <dimension ref="A1:D93"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="86.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
         <v>202</v>
       </c>
@@ -12935,1286 +13072,798 @@
         <v>204</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="28" t="s">
+        <v>205</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="D2" s="30">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>205</v>
+      </c>
+      <c r="C3" s="28" t="s">
         <v>207</v>
       </c>
-      <c r="D2" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="D3" s="30">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="D3" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="24" t="s">
-        <v>270</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>205</v>
-      </c>
-      <c r="C4" s="24" t="s">
-        <v>297</v>
-      </c>
-      <c r="D4" s="26">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="24" t="s">
-        <v>270</v>
-      </c>
-      <c r="B5" s="24" t="s">
-        <v>205</v>
-      </c>
-      <c r="C5" s="24" t="s">
-        <v>298</v>
-      </c>
-      <c r="D5" s="26">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="24" t="s">
-        <v>270</v>
-      </c>
-      <c r="B6" s="24" t="s">
-        <v>205</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>299</v>
-      </c>
-      <c r="D6" s="26">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="24" t="s">
-        <v>270</v>
-      </c>
-      <c r="B7" s="24" t="s">
-        <v>205</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>300</v>
-      </c>
-      <c r="D7" s="26">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="24" t="s">
-        <v>270</v>
-      </c>
-      <c r="B8" s="24" t="s">
-        <v>205</v>
-      </c>
-      <c r="C8" s="24" t="s">
-        <v>301</v>
-      </c>
-      <c r="D8" s="26">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="B4" s="28" t="s">
+        <v>241</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>250</v>
+      </c>
+      <c r="D4" s="30">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B5" s="28" t="s">
         <v>241</v>
       </c>
-      <c r="C9" s="30" t="s">
-        <v>250</v>
-      </c>
-      <c r="D9" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="C5" s="28" t="s">
+        <v>244</v>
+      </c>
+      <c r="D5" s="30">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B6" s="28" t="s">
+        <v>205</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>214</v>
+      </c>
+      <c r="D6" s="30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>205</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="D7" s="30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="28" t="s">
         <v>241</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="D10" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+      <c r="C8" s="28" t="s">
+        <v>254</v>
+      </c>
+      <c r="D8" s="30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C11" s="30" t="s">
+      <c r="B9" s="28" t="s">
+        <v>205</v>
+      </c>
+      <c r="C9" s="28" t="s">
         <v>208</v>
       </c>
-      <c r="D11" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="24" t="s">
-        <v>270</v>
-      </c>
-      <c r="B12" s="24" t="s">
-        <v>205</v>
-      </c>
-      <c r="C12" s="24" t="s">
-        <v>302</v>
-      </c>
-      <c r="D12" s="26">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="24" t="s">
-        <v>270</v>
-      </c>
-      <c r="B13" s="24" t="s">
-        <v>205</v>
-      </c>
-      <c r="C13" s="24" t="s">
-        <v>303</v>
-      </c>
-      <c r="D13" s="26">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+      <c r="D9" s="30">
         <v>3</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="D14" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+    </row>
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="D15" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+      <c r="B10" s="28" t="s">
+        <v>205</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>350</v>
+      </c>
+      <c r="D10" s="30">
         <v>3</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="D16" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+    </row>
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B11" s="28" t="s">
         <v>226</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="D17" s="1">
+      <c r="C11" s="28" t="s">
+        <v>345</v>
+      </c>
+      <c r="D11" s="30">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+    <row r="12" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="D18" s="1">
+      <c r="B12" s="28" t="s">
+        <v>241</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>262</v>
+      </c>
+      <c r="D12" s="30">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+    <row r="13" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C19" s="1" t="s">
+      <c r="B13" s="28" t="s">
+        <v>205</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>361</v>
+      </c>
+      <c r="D13" s="30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>205</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="D14" s="30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>241</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>258</v>
+      </c>
+      <c r="D15" s="30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="28" t="s">
+        <v>205</v>
+      </c>
+      <c r="C16" s="28" t="s">
         <v>216</v>
       </c>
-      <c r="D19" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+      <c r="D16" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C20" s="1" t="s">
+      <c r="B17" s="28" t="s">
+        <v>205</v>
+      </c>
+      <c r="C17" s="28" t="s">
         <v>218</v>
       </c>
-      <c r="D20" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+      <c r="D17" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B18" s="28" t="s">
+        <v>226</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>536</v>
+      </c>
+      <c r="D18" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>226</v>
+      </c>
+      <c r="C19" s="28" t="s">
+        <v>537</v>
+      </c>
+      <c r="D19" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>205</v>
+      </c>
+      <c r="C20" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="D20" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="28" t="s">
         <v>241</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="D21" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
+      <c r="C21" s="28" t="s">
+        <v>264</v>
+      </c>
+      <c r="D21" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="28" t="s">
+        <v>226</v>
+      </c>
+      <c r="C22" s="28" t="s">
+        <v>227</v>
+      </c>
+      <c r="D22" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="28" t="s">
+        <v>226</v>
+      </c>
+      <c r="C23" s="28" t="s">
+        <v>228</v>
+      </c>
+      <c r="D23" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="28" t="s">
+        <v>226</v>
+      </c>
+      <c r="C24" s="28" t="s">
+        <v>382</v>
+      </c>
+      <c r="D24" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="28" t="s">
+        <v>226</v>
+      </c>
+      <c r="C25" s="28" t="s">
+        <v>538</v>
+      </c>
+      <c r="D25" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" s="28" t="s">
+        <v>205</v>
+      </c>
+      <c r="C26" s="28" t="s">
+        <v>212</v>
+      </c>
+      <c r="D26" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" s="28" t="s">
+        <v>205</v>
+      </c>
+      <c r="C27" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="D27" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="28" t="s">
+        <v>205</v>
+      </c>
+      <c r="C28" s="28" t="s">
+        <v>234</v>
+      </c>
+      <c r="D28" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" s="28" t="s">
+        <v>205</v>
+      </c>
+      <c r="C29" s="28" t="s">
+        <v>229</v>
+      </c>
+      <c r="D29" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" s="28" t="s">
+        <v>205</v>
+      </c>
+      <c r="C30" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="D30" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" s="28" t="s">
         <v>241</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D22" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="D23" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C24" s="30" t="s">
-        <v>219</v>
-      </c>
-      <c r="D24" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="D25" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="D26" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="D27" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="D28" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="D29" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="24" t="s">
-        <v>270</v>
-      </c>
-      <c r="B30" s="31" t="s">
-        <v>205</v>
-      </c>
-      <c r="C30" s="24" t="s">
-        <v>273</v>
-      </c>
-      <c r="D30" s="26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="24" t="s">
-        <v>270</v>
-      </c>
-      <c r="B31" s="24" t="s">
-        <v>205</v>
-      </c>
-      <c r="C31" s="24" t="s">
-        <v>305</v>
-      </c>
-      <c r="D31" s="26">
-        <v>2</v>
+      <c r="C31" s="28" t="s">
+        <v>407</v>
+      </c>
+      <c r="D31" s="30">
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="D32" s="1">
-        <v>1</v>
-      </c>
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
     </row>
     <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="D33" s="1">
-        <v>1</v>
-      </c>
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
     </row>
     <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="D34" s="1">
-        <v>1</v>
-      </c>
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
     </row>
     <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="D35" s="1">
-        <v>1</v>
-      </c>
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
     </row>
     <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="D36" s="1">
-        <v>1</v>
-      </c>
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
     </row>
     <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="D37" s="1">
-        <v>1</v>
-      </c>
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
     </row>
     <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="D38" s="1">
-        <v>1</v>
-      </c>
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
     </row>
     <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="D39" s="1">
-        <v>1</v>
-      </c>
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
     </row>
     <row r="40" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="D40" s="1">
-        <v>1</v>
-      </c>
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
     </row>
     <row r="41" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D41" s="1">
-        <v>1</v>
-      </c>
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
     </row>
     <row r="42" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="D42" s="1">
-        <v>1</v>
-      </c>
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
     </row>
     <row r="43" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="24" t="s">
-        <v>270</v>
-      </c>
-      <c r="B43" s="24" t="s">
-        <v>205</v>
-      </c>
-      <c r="C43" s="24" t="s">
-        <v>304</v>
-      </c>
-      <c r="D43" s="26">
-        <v>1</v>
-      </c>
+      <c r="A43" s="24"/>
+      <c r="B43" s="24"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="25"/>
     </row>
     <row r="44" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A44" s="24" t="s">
-        <v>270</v>
-      </c>
-      <c r="B44" s="24" t="s">
-        <v>205</v>
-      </c>
-      <c r="C44" s="24" t="s">
-        <v>306</v>
-      </c>
-      <c r="D44" s="26">
-        <v>1</v>
-      </c>
+      <c r="A44" s="24"/>
+      <c r="B44" s="24"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="25"/>
     </row>
     <row r="45" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="24" t="s">
-        <v>270</v>
-      </c>
-      <c r="B45" s="24" t="s">
-        <v>205</v>
-      </c>
-      <c r="C45" s="24" t="s">
-        <v>307</v>
-      </c>
-      <c r="D45" s="26">
-        <v>1</v>
-      </c>
+      <c r="A45" s="24"/>
+      <c r="B45" s="24"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="25"/>
     </row>
     <row r="46" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="24" t="s">
-        <v>270</v>
-      </c>
-      <c r="B46" s="24" t="s">
-        <v>205</v>
-      </c>
-      <c r="C46" s="24" t="s">
-        <v>308</v>
-      </c>
-      <c r="D46" s="26">
-        <v>1</v>
-      </c>
+      <c r="A46" s="24"/>
+      <c r="B46" s="24"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="25"/>
     </row>
     <row r="47" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="24" t="s">
-        <v>270</v>
-      </c>
-      <c r="B47" s="24" t="s">
-        <v>205</v>
-      </c>
-      <c r="C47" s="24" t="s">
-        <v>309</v>
-      </c>
-      <c r="D47" s="26">
-        <v>1</v>
-      </c>
+      <c r="A47" s="24"/>
+      <c r="B47" s="24"/>
+      <c r="C47" s="24"/>
+      <c r="D47" s="25"/>
     </row>
     <row r="48" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A48" s="24" t="s">
-        <v>270</v>
-      </c>
-      <c r="B48" s="24" t="s">
-        <v>205</v>
-      </c>
-      <c r="C48" s="24" t="s">
-        <v>310</v>
-      </c>
-      <c r="D48" s="26">
-        <v>1</v>
-      </c>
+      <c r="A48" s="24"/>
+      <c r="B48" s="24"/>
+      <c r="C48" s="24"/>
+      <c r="D48" s="25"/>
     </row>
     <row r="49" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A49" s="24" t="s">
-        <v>270</v>
-      </c>
-      <c r="B49" s="24" t="s">
-        <v>205</v>
-      </c>
-      <c r="C49" s="24" t="s">
-        <v>311</v>
-      </c>
-      <c r="D49" s="26">
-        <v>1</v>
-      </c>
+      <c r="A49" s="24"/>
+      <c r="B49" s="24"/>
+      <c r="C49" s="24"/>
+      <c r="D49" s="25"/>
     </row>
     <row r="50" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A50" s="24" t="s">
-        <v>270</v>
-      </c>
-      <c r="B50" s="24" t="s">
-        <v>205</v>
-      </c>
-      <c r="C50" s="24" t="s">
-        <v>237</v>
-      </c>
-      <c r="D50" s="26">
-        <v>1</v>
-      </c>
+      <c r="A50" s="24"/>
+      <c r="B50" s="24"/>
+      <c r="C50" s="24"/>
+      <c r="D50" s="25"/>
     </row>
     <row r="51" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A51" s="24" t="s">
-        <v>270</v>
-      </c>
-      <c r="B51" s="24" t="s">
-        <v>205</v>
-      </c>
-      <c r="C51" s="24" t="s">
-        <v>238</v>
-      </c>
-      <c r="D51" s="26">
-        <v>1</v>
-      </c>
+      <c r="A51" s="24"/>
+      <c r="B51" s="24"/>
+      <c r="C51" s="24"/>
+      <c r="D51" s="25"/>
     </row>
     <row r="52" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A52" s="24" t="s">
-        <v>270</v>
-      </c>
-      <c r="B52" s="24" t="s">
-        <v>205</v>
-      </c>
-      <c r="C52" s="24" t="s">
-        <v>239</v>
-      </c>
-      <c r="D52" s="26">
-        <v>1</v>
-      </c>
+      <c r="A52" s="24"/>
+      <c r="B52" s="24"/>
+      <c r="C52" s="24"/>
+      <c r="D52" s="25"/>
     </row>
     <row r="53" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A53" s="24" t="s">
-        <v>270</v>
-      </c>
-      <c r="B53" s="24" t="s">
-        <v>205</v>
-      </c>
-      <c r="C53" s="24" t="s">
-        <v>240</v>
-      </c>
-      <c r="D53" s="26">
-        <v>1</v>
-      </c>
+      <c r="A53" s="24"/>
+      <c r="B53" s="24"/>
+      <c r="C53" s="24"/>
+      <c r="D53" s="25"/>
     </row>
     <row r="54" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A54" s="24" t="s">
-        <v>270</v>
-      </c>
-      <c r="B54" s="24" t="s">
-        <v>205</v>
-      </c>
-      <c r="C54" s="24" t="s">
-        <v>319</v>
-      </c>
-      <c r="D54" s="26">
-        <v>1</v>
-      </c>
+      <c r="A54" s="24"/>
+      <c r="B54" s="24"/>
+      <c r="C54" s="24"/>
+      <c r="D54" s="25"/>
     </row>
     <row r="55" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A55" s="24" t="s">
-        <v>270</v>
-      </c>
-      <c r="B55" s="24" t="s">
-        <v>205</v>
-      </c>
-      <c r="C55" s="24" t="s">
-        <v>320</v>
-      </c>
-      <c r="D55" s="26">
-        <v>1</v>
-      </c>
+      <c r="A55" s="24"/>
+      <c r="B55" s="24"/>
+      <c r="C55" s="24"/>
+      <c r="D55" s="25"/>
     </row>
     <row r="56" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A56" s="24" t="s">
-        <v>270</v>
-      </c>
-      <c r="B56" s="24" t="s">
-        <v>205</v>
-      </c>
-      <c r="C56" s="24" t="s">
-        <v>321</v>
-      </c>
-      <c r="D56" s="26">
-        <v>1</v>
-      </c>
+      <c r="A56" s="24"/>
+      <c r="B56" s="24"/>
+      <c r="C56" s="24"/>
+      <c r="D56" s="25"/>
     </row>
     <row r="57" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A57" s="24" t="s">
-        <v>270</v>
-      </c>
-      <c r="B57" s="24" t="s">
-        <v>205</v>
-      </c>
-      <c r="C57" s="24" t="s">
-        <v>322</v>
-      </c>
-      <c r="D57" s="26">
-        <v>1</v>
-      </c>
+      <c r="A57" s="24"/>
+      <c r="B57" s="24"/>
+      <c r="C57" s="24"/>
+      <c r="D57" s="25"/>
     </row>
     <row r="58" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A58" s="24" t="s">
-        <v>270</v>
-      </c>
-      <c r="B58" s="24" t="s">
-        <v>205</v>
-      </c>
-      <c r="C58" s="24" t="s">
-        <v>323</v>
-      </c>
-      <c r="D58" s="26">
-        <v>1</v>
-      </c>
+      <c r="A58" s="24"/>
+      <c r="B58" s="24"/>
+      <c r="C58" s="24"/>
+      <c r="D58" s="25"/>
     </row>
     <row r="59" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A59" s="24" t="s">
-        <v>270</v>
-      </c>
-      <c r="B59" s="24" t="s">
-        <v>205</v>
-      </c>
-      <c r="C59" s="24" t="s">
-        <v>324</v>
-      </c>
-      <c r="D59" s="26">
-        <v>1</v>
-      </c>
+      <c r="A59" s="24"/>
+      <c r="B59" s="24"/>
+      <c r="C59" s="24"/>
+      <c r="D59" s="25"/>
     </row>
     <row r="60" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A60" s="24" t="s">
-        <v>270</v>
-      </c>
-      <c r="B60" s="24" t="s">
-        <v>205</v>
-      </c>
-      <c r="C60" s="24" t="s">
-        <v>325</v>
-      </c>
-      <c r="D60" s="26">
-        <v>1</v>
-      </c>
+      <c r="A60" s="24"/>
+      <c r="B60" s="24"/>
+      <c r="C60" s="24"/>
+      <c r="D60" s="25"/>
     </row>
     <row r="61" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A61" s="24" t="s">
-        <v>270</v>
-      </c>
-      <c r="B61" s="24" t="s">
-        <v>205</v>
-      </c>
-      <c r="C61" s="24" t="s">
-        <v>326</v>
-      </c>
-      <c r="D61" s="26">
-        <v>1</v>
-      </c>
+      <c r="A61" s="24"/>
+      <c r="B61" s="24"/>
+      <c r="C61" s="24"/>
+      <c r="D61" s="25"/>
     </row>
     <row r="62" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A62" s="24" t="s">
-        <v>270</v>
-      </c>
-      <c r="B62" s="24" t="s">
-        <v>205</v>
-      </c>
-      <c r="C62" s="24" t="s">
-        <v>327</v>
-      </c>
-      <c r="D62" s="26">
-        <v>1</v>
-      </c>
+      <c r="A62" s="24"/>
+      <c r="B62" s="24"/>
+      <c r="C62" s="24"/>
+      <c r="D62" s="25"/>
     </row>
     <row r="63" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A63" s="24" t="s">
-        <v>270</v>
-      </c>
-      <c r="B63" s="24" t="s">
-        <v>205</v>
-      </c>
-      <c r="C63" s="24" t="s">
-        <v>329</v>
-      </c>
-      <c r="D63" s="26">
-        <v>1</v>
-      </c>
+      <c r="A63" s="24"/>
+      <c r="B63" s="24"/>
+      <c r="C63" s="24"/>
+      <c r="D63" s="25"/>
     </row>
     <row r="64" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A64" s="24" t="s">
-        <v>270</v>
-      </c>
-      <c r="B64" s="24" t="s">
-        <v>205</v>
-      </c>
-      <c r="C64" s="24" t="s">
-        <v>331</v>
-      </c>
-      <c r="D64" s="26">
-        <v>1</v>
-      </c>
+      <c r="A64" s="24"/>
+      <c r="B64" s="24"/>
+      <c r="C64" s="24"/>
+      <c r="D64" s="25"/>
     </row>
     <row r="65" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A65" s="24" t="s">
-        <v>270</v>
-      </c>
-      <c r="B65" s="24" t="s">
-        <v>205</v>
-      </c>
-      <c r="C65" s="24" t="s">
-        <v>333</v>
-      </c>
-      <c r="D65" s="26">
-        <v>1</v>
-      </c>
+      <c r="A65" s="24"/>
+      <c r="B65" s="24"/>
+      <c r="C65" s="24"/>
+      <c r="D65" s="25"/>
     </row>
     <row r="66" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A66" s="24" t="s">
-        <v>270</v>
-      </c>
-      <c r="B66" s="24" t="s">
-        <v>205</v>
-      </c>
-      <c r="C66" s="24" t="s">
-        <v>336</v>
-      </c>
-      <c r="D66" s="26">
-        <v>1</v>
-      </c>
+      <c r="A66" s="24"/>
+      <c r="B66" s="24"/>
+      <c r="C66" s="24"/>
+      <c r="D66" s="25"/>
     </row>
     <row r="67" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A67" s="24" t="s">
-        <v>270</v>
-      </c>
-      <c r="B67" s="24" t="s">
-        <v>205</v>
-      </c>
-      <c r="C67" s="24" t="s">
-        <v>337</v>
-      </c>
-      <c r="D67" s="26">
-        <v>1</v>
-      </c>
+      <c r="A67" s="24"/>
+      <c r="B67" s="24"/>
+      <c r="C67" s="24"/>
+      <c r="D67" s="25"/>
     </row>
     <row r="68" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A68" s="24" t="s">
-        <v>270</v>
-      </c>
-      <c r="B68" s="24" t="s">
-        <v>205</v>
-      </c>
-      <c r="C68" s="24" t="s">
-        <v>338</v>
-      </c>
-      <c r="D68" s="26">
-        <v>1</v>
-      </c>
+      <c r="A68" s="24"/>
+      <c r="B68" s="24"/>
+      <c r="C68" s="24"/>
+      <c r="D68" s="25"/>
     </row>
     <row r="69" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A69" s="24" t="s">
-        <v>270</v>
-      </c>
-      <c r="B69" s="24" t="s">
-        <v>205</v>
-      </c>
-      <c r="C69" s="24" t="s">
-        <v>339</v>
-      </c>
-      <c r="D69" s="26">
-        <v>1</v>
-      </c>
+      <c r="A69" s="24"/>
+      <c r="B69" s="24"/>
+      <c r="C69" s="24"/>
+      <c r="D69" s="25"/>
     </row>
     <row r="70" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A70" s="24" t="s">
-        <v>270</v>
-      </c>
-      <c r="B70" s="24" t="s">
-        <v>205</v>
-      </c>
-      <c r="C70" s="24" t="s">
-        <v>340</v>
-      </c>
-      <c r="D70" s="26">
-        <v>1</v>
-      </c>
+      <c r="A70" s="24"/>
+      <c r="B70" s="24"/>
+      <c r="C70" s="24"/>
+      <c r="D70" s="25"/>
     </row>
     <row r="71" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A71" s="24" t="s">
-        <v>270</v>
-      </c>
-      <c r="B71" s="24" t="s">
-        <v>205</v>
-      </c>
-      <c r="C71" s="24" t="s">
-        <v>341</v>
-      </c>
-      <c r="D71" s="26">
-        <v>1</v>
-      </c>
+      <c r="A71" s="24"/>
+      <c r="B71" s="24"/>
+      <c r="C71" s="24"/>
+      <c r="D71" s="25"/>
     </row>
     <row r="72" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A72" s="24" t="s">
-        <v>270</v>
-      </c>
-      <c r="B72" s="24" t="s">
-        <v>205</v>
-      </c>
-      <c r="C72" s="24" t="s">
-        <v>342</v>
-      </c>
-      <c r="D72" s="26">
-        <v>1</v>
-      </c>
+      <c r="A72" s="24"/>
+      <c r="B72" s="24"/>
+      <c r="C72" s="24"/>
+      <c r="D72" s="25"/>
     </row>
     <row r="73" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A73" s="24" t="s">
-        <v>270</v>
-      </c>
-      <c r="B73" s="24" t="s">
-        <v>205</v>
-      </c>
-      <c r="C73" s="24" t="s">
-        <v>343</v>
-      </c>
-      <c r="D73" s="26">
-        <v>1</v>
-      </c>
+      <c r="A73" s="24"/>
+      <c r="B73" s="24"/>
+      <c r="C73" s="24"/>
+      <c r="D73" s="25"/>
     </row>
     <row r="74" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A74" s="24" t="s">
-        <v>270</v>
-      </c>
-      <c r="B74" s="24" t="s">
-        <v>205</v>
-      </c>
-      <c r="C74" s="24" t="s">
-        <v>344</v>
-      </c>
-      <c r="D74" s="26">
-        <v>1</v>
-      </c>
+      <c r="A74" s="24"/>
+      <c r="B74" s="24"/>
+      <c r="C74" s="24"/>
+      <c r="D74" s="25"/>
     </row>
     <row r="75" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A75" s="24" t="s">
-        <v>270</v>
-      </c>
-      <c r="B75" s="24" t="s">
-        <v>205</v>
-      </c>
-      <c r="C75" s="24" t="s">
-        <v>346</v>
-      </c>
-      <c r="D75" s="26">
-        <v>1</v>
-      </c>
+      <c r="A75" s="24"/>
+      <c r="B75" s="24"/>
+      <c r="C75" s="24"/>
+      <c r="D75" s="25"/>
     </row>
     <row r="76" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A76" s="24" t="s">
-        <v>270</v>
-      </c>
-      <c r="B76" s="24" t="s">
-        <v>205</v>
-      </c>
-      <c r="C76" s="24" t="s">
-        <v>347</v>
-      </c>
-      <c r="D76" s="26">
-        <v>1</v>
-      </c>
+      <c r="A76" s="24"/>
+      <c r="B76" s="24"/>
+      <c r="C76" s="24"/>
+      <c r="D76" s="25"/>
     </row>
     <row r="77" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A77" s="24" t="s">
-        <v>270</v>
-      </c>
-      <c r="B77" s="24" t="s">
-        <v>205</v>
-      </c>
-      <c r="C77" s="24" t="s">
-        <v>349</v>
-      </c>
-      <c r="D77" s="26">
-        <v>1</v>
-      </c>
+      <c r="A77" s="24"/>
+      <c r="B77" s="24"/>
+      <c r="C77" s="24"/>
+      <c r="D77" s="25"/>
     </row>
     <row r="78" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A78" s="24" t="s">
-        <v>270</v>
-      </c>
-      <c r="B78" s="24" t="s">
-        <v>205</v>
-      </c>
-      <c r="C78" s="24" t="s">
-        <v>350</v>
-      </c>
-      <c r="D78" s="26">
-        <v>1</v>
-      </c>
+      <c r="A78" s="24"/>
+      <c r="B78" s="24"/>
+      <c r="C78" s="24"/>
+      <c r="D78" s="25"/>
     </row>
     <row r="79" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A79" s="24" t="s">
-        <v>270</v>
-      </c>
-      <c r="B79" s="24" t="s">
-        <v>205</v>
-      </c>
-      <c r="C79" s="24" t="s">
-        <v>352</v>
-      </c>
-      <c r="D79" s="26">
-        <v>1</v>
-      </c>
+      <c r="A79" s="24"/>
+      <c r="B79" s="24"/>
+      <c r="C79" s="24"/>
+      <c r="D79" s="25"/>
     </row>
     <row r="80" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A80" s="24" t="s">
-        <v>270</v>
-      </c>
-      <c r="B80" s="24" t="s">
-        <v>205</v>
-      </c>
-      <c r="C80" s="24" t="s">
-        <v>354</v>
-      </c>
-      <c r="D80" s="26">
-        <v>1</v>
-      </c>
+      <c r="A80" s="24"/>
+      <c r="B80" s="24"/>
+      <c r="C80" s="24"/>
+      <c r="D80" s="25"/>
     </row>
     <row r="81" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A81" s="24" t="s">
-        <v>270</v>
-      </c>
-      <c r="B81" s="24" t="s">
-        <v>205</v>
-      </c>
-      <c r="C81" s="24" t="s">
-        <v>355</v>
-      </c>
-      <c r="D81" s="26">
-        <v>1</v>
-      </c>
+      <c r="A81" s="24"/>
+      <c r="B81" s="24"/>
+      <c r="C81" s="24"/>
+      <c r="D81" s="25"/>
     </row>
     <row r="82" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A82" s="24" t="s">
-        <v>270</v>
-      </c>
-      <c r="B82" s="24" t="s">
-        <v>205</v>
-      </c>
-      <c r="C82" s="24" t="s">
-        <v>356</v>
-      </c>
-      <c r="D82" s="26">
-        <v>1</v>
-      </c>
+      <c r="A82" s="24"/>
+      <c r="B82" s="24"/>
+      <c r="C82" s="24"/>
+      <c r="D82" s="25"/>
     </row>
     <row r="83" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A83" s="24" t="s">
-        <v>270</v>
-      </c>
-      <c r="B83" s="24" t="s">
-        <v>205</v>
-      </c>
-      <c r="C83" s="24" t="s">
-        <v>358</v>
-      </c>
-      <c r="D83" s="26">
-        <v>1</v>
-      </c>
+      <c r="A83" s="24"/>
+      <c r="B83" s="24"/>
+      <c r="C83" s="24"/>
+      <c r="D83" s="25"/>
     </row>
     <row r="84" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A84" s="24" t="s">
-        <v>270</v>
-      </c>
-      <c r="B84" s="24" t="s">
-        <v>205</v>
-      </c>
-      <c r="C84" s="24" t="s">
-        <v>359</v>
-      </c>
-      <c r="D84" s="26">
-        <v>1</v>
-      </c>
+      <c r="A84" s="24"/>
+      <c r="B84" s="24"/>
+      <c r="C84" s="24"/>
+      <c r="D84" s="25"/>
     </row>
     <row r="85" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A85" s="24" t="s">
-        <v>270</v>
-      </c>
-      <c r="B85" s="24" t="s">
-        <v>205</v>
-      </c>
-      <c r="C85" s="24" t="s">
-        <v>360</v>
-      </c>
-      <c r="D85" s="26">
-        <v>1</v>
-      </c>
+      <c r="A85" s="24"/>
+      <c r="B85" s="24"/>
+      <c r="C85" s="24"/>
+      <c r="D85" s="25"/>
     </row>
     <row r="86" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A86" s="24" t="s">
-        <v>270</v>
-      </c>
-      <c r="B86" s="24" t="s">
-        <v>205</v>
-      </c>
-      <c r="C86" s="24" t="s">
-        <v>361</v>
-      </c>
-      <c r="D86" s="26">
-        <v>1</v>
-      </c>
+      <c r="A86" s="24"/>
+      <c r="B86" s="24"/>
+      <c r="C86" s="24"/>
+      <c r="D86" s="25"/>
     </row>
     <row r="87" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A87" s="24" t="s">
-        <v>270</v>
-      </c>
-      <c r="B87" s="24" t="s">
-        <v>205</v>
-      </c>
-      <c r="C87" s="24" t="s">
-        <v>363</v>
-      </c>
-      <c r="D87" s="26">
-        <v>1</v>
-      </c>
+      <c r="A87" s="24"/>
+      <c r="B87" s="24"/>
+      <c r="C87" s="24"/>
+      <c r="D87" s="25"/>
     </row>
     <row r="88" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A88" s="24" t="s">
-        <v>270</v>
-      </c>
-      <c r="B88" s="24" t="s">
-        <v>205</v>
-      </c>
-      <c r="C88" s="24" t="s">
-        <v>365</v>
-      </c>
-      <c r="D88" s="26">
-        <v>1</v>
-      </c>
+      <c r="A88" s="24"/>
+      <c r="B88" s="24"/>
+      <c r="C88" s="24"/>
+      <c r="D88" s="25"/>
     </row>
     <row r="89" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A89" s="24" t="s">
-        <v>270</v>
-      </c>
-      <c r="B89" s="24" t="s">
-        <v>205</v>
-      </c>
-      <c r="C89" s="24" t="s">
-        <v>366</v>
-      </c>
-      <c r="D89" s="26">
-        <v>1</v>
-      </c>
+      <c r="A89" s="24"/>
+      <c r="B89" s="24"/>
+      <c r="C89" s="24"/>
+      <c r="D89" s="25"/>
     </row>
     <row r="90" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A90" s="24" t="s">
-        <v>270</v>
-      </c>
-      <c r="B90" s="24" t="s">
-        <v>205</v>
-      </c>
-      <c r="C90" s="24" t="s">
-        <v>367</v>
-      </c>
-      <c r="D90" s="26">
-        <v>1</v>
-      </c>
+      <c r="A90" s="24"/>
+      <c r="B90" s="24"/>
+      <c r="C90" s="24"/>
+      <c r="D90" s="25"/>
     </row>
     <row r="91" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A91" s="24" t="s">
-        <v>270</v>
-      </c>
-      <c r="B91" s="24" t="s">
-        <v>205</v>
-      </c>
-      <c r="C91" s="24" t="s">
-        <v>368</v>
-      </c>
-      <c r="D91" s="26">
-        <v>1</v>
-      </c>
+      <c r="A91" s="24"/>
+      <c r="B91" s="24"/>
+      <c r="C91" s="24"/>
+      <c r="D91" s="25"/>
     </row>
     <row r="92" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A92" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="D92" s="1">
-        <v>1</v>
-      </c>
+      <c r="A92" s="1"/>
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
     </row>
     <row r="93" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B93" s="1" t="s">
         <v>205</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
     </row>
   </sheetData>
